--- a/doc/Workbook1.xlsx
+++ b/doc/Workbook1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="224">
   <si>
     <t>senzorvzduchu.cz</t>
   </si>
@@ -322,13 +322,382 @@
   </si>
   <si>
     <t>,"info":"</t>
+  </si>
+  <si>
+    <t>35.049889</t>
+  </si>
+  <si>
+    <t>48.466098</t>
+  </si>
+  <si>
+    <t>DNK1</t>
+  </si>
+  <si>
+    <t>Dnipro</t>
+  </si>
+  <si>
+    <t>savednipro.org</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>35.0460373</t>
+  </si>
+  <si>
+    <t>48.4642516</t>
+  </si>
+  <si>
+    <t>DNK2</t>
+  </si>
+  <si>
+    <t>Heroiv Maidanu Square, bus station, pedestrian area, huge traffic</t>
+  </si>
+  <si>
+    <t>35.0653546</t>
+  </si>
+  <si>
+    <t>48.4663951</t>
+  </si>
+  <si>
+    <t>DNK3</t>
+  </si>
+  <si>
+    <t>Festival pier, pedestrian area, crowded place, the longest promenade in Ukraine</t>
+  </si>
+  <si>
+    <t>35.0733477</t>
+  </si>
+  <si>
+    <t>48.4084019</t>
+  </si>
+  <si>
+    <t>DNK4</t>
+  </si>
+  <si>
+    <t>35.0629357</t>
+  </si>
+  <si>
+    <t>48.4243839</t>
+  </si>
+  <si>
+    <t>DNK5</t>
+  </si>
+  <si>
+    <t>Kosmichnaya Street, roundabout, reference measurement station, huge traffic</t>
+  </si>
+  <si>
+    <t>35.1318213</t>
+  </si>
+  <si>
+    <t>48.4039489</t>
+  </si>
+  <si>
+    <t>DNK6</t>
+  </si>
+  <si>
+    <t>34.9474725</t>
+  </si>
+  <si>
+    <t>48.4872575</t>
+  </si>
+  <si>
+    <t>DNK7</t>
+  </si>
+  <si>
+    <t>Novokodatskyi Park, ice arena, no traffic, city hospital</t>
+  </si>
+  <si>
+    <t>34.9778414</t>
+  </si>
+  <si>
+    <t>48.4761675</t>
+  </si>
+  <si>
+    <t>DNK8</t>
+  </si>
+  <si>
+    <t>Serhiia Nihoiana Avenue, reference measurement station, governmental building, metallurgical plant</t>
+  </si>
+  <si>
+    <t>34.9899219</t>
+  </si>
+  <si>
+    <t>48.509473</t>
+  </si>
+  <si>
+    <t>DNK9</t>
+  </si>
+  <si>
+    <t>35.0141552</t>
+  </si>
+  <si>
+    <t>48.5310254</t>
+  </si>
+  <si>
+    <t>DNK10</t>
+  </si>
+  <si>
+    <t>35.089979</t>
+  </si>
+  <si>
+    <t>48.498245</t>
+  </si>
+  <si>
+    <t>DNK11</t>
+  </si>
+  <si>
+    <t>35.05493</t>
+  </si>
+  <si>
+    <t>48.515423</t>
+  </si>
+  <si>
+    <t>DNK12</t>
+  </si>
+  <si>
+    <t>35.0063704</t>
+  </si>
+  <si>
+    <t>48.4374452</t>
+  </si>
+  <si>
+    <t>DNK13</t>
+  </si>
+  <si>
+    <t>35.0327317</t>
+  </si>
+  <si>
+    <t>48.5266199</t>
+  </si>
+  <si>
+    <t>DNK14</t>
+  </si>
+  <si>
+    <t>35.0152727</t>
+  </si>
+  <si>
+    <t>48.4772814</t>
+  </si>
+  <si>
+    <t>DNK15</t>
+  </si>
+  <si>
+    <t>Central railway station, crowded place, huge traffic</t>
+  </si>
+  <si>
+    <t>35.0228672</t>
+  </si>
+  <si>
+    <t>48.4719534</t>
+  </si>
+  <si>
+    <t>DNK16</t>
+  </si>
+  <si>
+    <t>34.9524035</t>
+  </si>
+  <si>
+    <t>48.5216731</t>
+  </si>
+  <si>
+    <t>DNK17</t>
+  </si>
+  <si>
+    <t>City Cardiac-Hospital #20, Amur-Nyzhnodniprovskyi District, no traffic</t>
+  </si>
+  <si>
+    <t>35.0276852</t>
+  </si>
+  <si>
+    <t>48.3958008</t>
+  </si>
+  <si>
+    <t>DNK18</t>
+  </si>
+  <si>
+    <t>34.9801057</t>
+  </si>
+  <si>
+    <t>48.3936032</t>
+  </si>
+  <si>
+    <t>DNK19</t>
+  </si>
+  <si>
+    <t>35.0010162</t>
+  </si>
+  <si>
+    <t>48.4081437</t>
+  </si>
+  <si>
+    <t>DNK20</t>
+  </si>
+  <si>
+    <t>34.9060767</t>
+  </si>
+  <si>
+    <t>48.480765</t>
+  </si>
+  <si>
+    <t>DNK21</t>
+  </si>
+  <si>
+    <t>35.0231467</t>
+  </si>
+  <si>
+    <t>48.425396</t>
+  </si>
+  <si>
+    <t>DNK22</t>
+  </si>
+  <si>
+    <t>35.0094192</t>
+  </si>
+  <si>
+    <t>48.428169</t>
+  </si>
+  <si>
+    <t>DNK23</t>
+  </si>
+  <si>
+    <t>35.0593666</t>
+  </si>
+  <si>
+    <t>48.450057</t>
+  </si>
+  <si>
+    <t>DNK24</t>
+  </si>
+  <si>
+    <t>34.969635</t>
+  </si>
+  <si>
+    <t>48.461718</t>
+  </si>
+  <si>
+    <t>DNK25</t>
+  </si>
+  <si>
+    <t>35.0009117</t>
+  </si>
+  <si>
+    <t>48.4475965</t>
+  </si>
+  <si>
+    <t>DNK26</t>
+  </si>
+  <si>
+    <t>Kaverina street, shopping malls, farmer's market, schools, huge traffic</t>
+  </si>
+  <si>
+    <t>35.0640127</t>
+  </si>
+  <si>
+    <t>48.4819102</t>
+  </si>
+  <si>
+    <t>DNK27</t>
+  </si>
+  <si>
+    <t>35.0488214</t>
+  </si>
+  <si>
+    <t>48.4916231</t>
+  </si>
+  <si>
+    <t>DNK28</t>
+  </si>
+  <si>
+    <t>Clinical Hospital #9, moderate traffic, schools</t>
+  </si>
+  <si>
+    <t>35.0815529</t>
+  </si>
+  <si>
+    <t>48.4607313</t>
+  </si>
+  <si>
+    <t>DNK29</t>
+  </si>
+  <si>
+    <t>Monastyrskyi island, Aquarium, green area, city park, no traffic</t>
+  </si>
+  <si>
+    <t>35.0700553</t>
+  </si>
+  <si>
+    <t>48.4626939</t>
+  </si>
+  <si>
+    <t>DNK30</t>
+  </si>
+  <si>
+    <t>Shopping mall \"MOST-City\", bus station, entrance to the \"Central bridge\", crowded place</t>
+  </si>
+  <si>
+    <t>Cafe \"Fantaziya\", pedestrian area, small green area, housing area, schools</t>
+  </si>
+  <si>
+    <t>House of culture \"Energetyk\", reference measurement station, residential area</t>
+  </si>
+  <si>
+    <t>Housing area \"Frunzenskyi\", huge traffic, residential area, shopping market</t>
+  </si>
+  <si>
+    <t>Housing area \"Livoberezhnyi-3\", residential area, schools, small traffic</t>
+  </si>
+  <si>
+    <t>Metallurgical plant \"Interpipe\", reference measurement station</t>
+  </si>
+  <si>
+    <t>Market \"Obraztsova\", Kalynova Street, schools, playgrounds, moderate traffic</t>
+  </si>
+  <si>
+    <t>Modern park \"Green Grove\", crowded place, green area, no traffic</t>
+  </si>
+  <si>
+    <t>Shopping mall \"Karavan\", huge traffic, crowded place, large market</t>
+  </si>
+  <si>
+    <t>Central city market \"Ozerka\", large parking slot, huge traffic, crowded place, central park</t>
+  </si>
+  <si>
+    <t>Housing area \"Topolia\", city hospital, schools</t>
+  </si>
+  <si>
+    <t>Housing area \"Krotova\", far from city center, schools, kindergarten</t>
+  </si>
+  <si>
+    <t>Housing area \"Kvartal 12\", large intersection, market, shopping mall, huge traffic, pedestrian area, schools, kindergartens</t>
+  </si>
+  <si>
+    <t>Housing area \"Parus\", schools, pedestrian area, bus station, small traffic</t>
+  </si>
+  <si>
+    <t>Shopping mall \"Dafi\", large roundabout, huge traffic, crowded place</t>
+  </si>
+  <si>
+    <t>Tytova street, shopping mall \"Silpo\", small traffic, residential area, street market, schools, kindergarten</t>
+  </si>
+  <si>
+    <t>Shopping mall \"Nagorka\", huge traffic, universities, hospitals</t>
+  </si>
+  <si>
+    <t>Petrovskogo street, shopping mall \"Varus\", children's clinical hospital #6, groceries stores, huge traffic</t>
+  </si>
+  <si>
+    <t>Housing area \"Solnechnyi\", huge traffic, small city park</t>
+  </si>
+  <si>
+    <t>Park \"Shevchenko\", no traffic, green area</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,6 +742,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -420,7 +793,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -435,6 +808,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -772,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:Q21"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2012,9 +2391,1418 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.3721686,50.0702677]},"properties":{"id":"PRG20","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Main exit to Pilsen, hill, valley."}},</v>
       </c>
     </row>
+    <row r="22" spans="1:19" ht="110" thickBot="1">
+      <c r="A22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="86" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="6">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M23" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" t="s">
+        <v>96</v>
+      </c>
+      <c r="O23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="98" thickBot="1">
+      <c r="A24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" t="s">
+        <v>96</v>
+      </c>
+      <c r="O24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="98" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" t="s">
+        <v>94</v>
+      </c>
+      <c r="M25" t="s">
+        <v>95</v>
+      </c>
+      <c r="N25" t="s">
+        <v>96</v>
+      </c>
+      <c r="O25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="86" thickBot="1">
+      <c r="A26" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
+      </c>
+      <c r="K26" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" t="s">
+        <v>96</v>
+      </c>
+      <c r="O26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="98" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" t="s">
+        <v>94</v>
+      </c>
+      <c r="M27" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" t="s">
+        <v>96</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="62" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" t="s">
+        <v>94</v>
+      </c>
+      <c r="M28" t="s">
+        <v>95</v>
+      </c>
+      <c r="N28" t="s">
+        <v>96</v>
+      </c>
+      <c r="O28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="122" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="6">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M29" t="s">
+        <v>95</v>
+      </c>
+      <c r="N29" t="s">
+        <v>96</v>
+      </c>
+      <c r="O29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="110" thickBot="1">
+      <c r="A30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="6">
+        <v>3</v>
+      </c>
+      <c r="G30" s="6">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J30" t="s">
+        <v>92</v>
+      </c>
+      <c r="K30" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" t="s">
+        <v>95</v>
+      </c>
+      <c r="N30" t="s">
+        <v>96</v>
+      </c>
+      <c r="O30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="98" thickBot="1">
+      <c r="A31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31" t="s">
+        <v>95</v>
+      </c>
+      <c r="N31" t="s">
+        <v>96</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="74" thickBot="1">
+      <c r="A32" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="6">
+        <v>3</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" t="s">
+        <v>94</v>
+      </c>
+      <c r="M32" t="s">
+        <v>95</v>
+      </c>
+      <c r="N32" t="s">
+        <v>96</v>
+      </c>
+      <c r="O32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="98" thickBot="1">
+      <c r="A33" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="6">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J33" t="s">
+        <v>92</v>
+      </c>
+      <c r="K33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M33" t="s">
+        <v>95</v>
+      </c>
+      <c r="N33" t="s">
+        <v>96</v>
+      </c>
+      <c r="O33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="86" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J34" t="s">
+        <v>92</v>
+      </c>
+      <c r="K34" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" t="s">
+        <v>95</v>
+      </c>
+      <c r="N34" t="s">
+        <v>96</v>
+      </c>
+      <c r="O34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="86" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" t="s">
+        <v>93</v>
+      </c>
+      <c r="L35" t="s">
+        <v>94</v>
+      </c>
+      <c r="M35" t="s">
+        <v>95</v>
+      </c>
+      <c r="N35" t="s">
+        <v>96</v>
+      </c>
+      <c r="O35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="74" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3</v>
+      </c>
+      <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36" t="s">
+        <v>92</v>
+      </c>
+      <c r="K36" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" t="s">
+        <v>94</v>
+      </c>
+      <c r="M36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N36" t="s">
+        <v>96</v>
+      </c>
+      <c r="O36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="110" thickBot="1">
+      <c r="A37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3</v>
+      </c>
+      <c r="G37" s="6">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J37" t="s">
+        <v>92</v>
+      </c>
+      <c r="K37" t="s">
+        <v>93</v>
+      </c>
+      <c r="L37" t="s">
+        <v>94</v>
+      </c>
+      <c r="M37" t="s">
+        <v>95</v>
+      </c>
+      <c r="N37" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="86" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" t="s">
+        <v>94</v>
+      </c>
+      <c r="M38" t="s">
+        <v>95</v>
+      </c>
+      <c r="N38" t="s">
+        <v>96</v>
+      </c>
+      <c r="O38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="62" thickBot="1">
+      <c r="A39" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="6">
+        <v>3</v>
+      </c>
+      <c r="G39" s="6">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" t="s">
+        <v>92</v>
+      </c>
+      <c r="K39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" t="s">
+        <v>94</v>
+      </c>
+      <c r="M39" t="s">
+        <v>95</v>
+      </c>
+      <c r="N39" t="s">
+        <v>96</v>
+      </c>
+      <c r="O39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="86" thickBot="1">
+      <c r="A40" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J40" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" t="s">
+        <v>94</v>
+      </c>
+      <c r="M40" t="s">
+        <v>95</v>
+      </c>
+      <c r="N40" t="s">
+        <v>96</v>
+      </c>
+      <c r="O40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="170" thickBot="1">
+      <c r="A41" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="6">
+        <v>3</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J41" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" t="s">
+        <v>94</v>
+      </c>
+      <c r="M41" t="s">
+        <v>95</v>
+      </c>
+      <c r="N41" t="s">
+        <v>96</v>
+      </c>
+      <c r="O41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="98" thickBot="1">
+      <c r="A42" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3</v>
+      </c>
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" t="s">
+        <v>92</v>
+      </c>
+      <c r="K42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" t="s">
+        <v>94</v>
+      </c>
+      <c r="M42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="86" thickBot="1">
+      <c r="A43" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="6">
+        <v>3</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J43" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43" t="s">
+        <v>93</v>
+      </c>
+      <c r="L43" t="s">
+        <v>94</v>
+      </c>
+      <c r="M43" t="s">
+        <v>95</v>
+      </c>
+      <c r="N43" t="s">
+        <v>96</v>
+      </c>
+      <c r="O43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="134" thickBot="1">
+      <c r="A44" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="6">
+        <v>3</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J44" t="s">
+        <v>92</v>
+      </c>
+      <c r="K44" t="s">
+        <v>93</v>
+      </c>
+      <c r="L44" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" t="s">
+        <v>95</v>
+      </c>
+      <c r="N44" t="s">
+        <v>96</v>
+      </c>
+      <c r="O44" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="74" thickBot="1">
+      <c r="A45" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="6">
+        <v>3</v>
+      </c>
+      <c r="G45" s="6">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" t="s">
+        <v>92</v>
+      </c>
+      <c r="K45" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45" t="s">
+        <v>94</v>
+      </c>
+      <c r="M45" t="s">
+        <v>95</v>
+      </c>
+      <c r="N45" t="s">
+        <v>96</v>
+      </c>
+      <c r="O45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="134" thickBot="1">
+      <c r="A46" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J46" t="s">
+        <v>92</v>
+      </c>
+      <c r="K46" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" t="s">
+        <v>94</v>
+      </c>
+      <c r="M46" t="s">
+        <v>95</v>
+      </c>
+      <c r="N46" t="s">
+        <v>96</v>
+      </c>
+      <c r="O46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="98" thickBot="1">
+      <c r="A47" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="6">
+        <v>3</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47" t="s">
+        <v>92</v>
+      </c>
+      <c r="K47" t="s">
+        <v>93</v>
+      </c>
+      <c r="L47" t="s">
+        <v>94</v>
+      </c>
+      <c r="M47" t="s">
+        <v>95</v>
+      </c>
+      <c r="N47" t="s">
+        <v>96</v>
+      </c>
+      <c r="O47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="74" thickBot="1">
+      <c r="A48" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="6">
+        <v>3</v>
+      </c>
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J48" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L48" t="s">
+        <v>94</v>
+      </c>
+      <c r="M48" t="s">
+        <v>95</v>
+      </c>
+      <c r="N48" t="s">
+        <v>96</v>
+      </c>
+      <c r="O48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="62" thickBot="1">
+      <c r="A49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="6">
+        <v>3</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" t="s">
+        <v>92</v>
+      </c>
+      <c r="K49" t="s">
+        <v>93</v>
+      </c>
+      <c r="L49" t="s">
+        <v>94</v>
+      </c>
+      <c r="M49" t="s">
+        <v>95</v>
+      </c>
+      <c r="N49" t="s">
+        <v>96</v>
+      </c>
+      <c r="O49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="74" thickBot="1">
+      <c r="A50" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="6">
+        <v>3</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J50" t="s">
+        <v>92</v>
+      </c>
+      <c r="K50" t="s">
+        <v>93</v>
+      </c>
+      <c r="L50" t="s">
+        <v>94</v>
+      </c>
+      <c r="M50" t="s">
+        <v>95</v>
+      </c>
+      <c r="N50" t="s">
+        <v>96</v>
+      </c>
+      <c r="O50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="62" thickBot="1">
+      <c r="A51" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="6">
+        <v>3</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J51" t="s">
+        <v>92</v>
+      </c>
+      <c r="K51" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51" t="s">
+        <v>94</v>
+      </c>
+      <c r="M51" t="s">
+        <v>95</v>
+      </c>
+      <c r="N51" t="s">
+        <v>96</v>
+      </c>
+      <c r="O51" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/Workbook1.xlsx
+++ b/doc/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="7300" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="295">
   <si>
     <t>senzorvzduchu.cz</t>
   </si>
@@ -691,13 +691,226 @@
   </si>
   <si>
     <t>Park \"Shevchenko\", no traffic, green area</t>
+  </si>
+  <si>
+    <t>19.075728</t>
+  </si>
+  <si>
+    <t>47.467912</t>
+  </si>
+  <si>
+    <t>BUD1</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>CAAG</t>
+  </si>
+  <si>
+    <t>(Közvágóhíd megálló) Busy intersection with people. traffic. party places. theatre nearby.</t>
+  </si>
+  <si>
+    <t>#3fc9f0</t>
+  </si>
+  <si>
+    <t>19.080888</t>
+  </si>
+  <si>
+    <t>47.466466</t>
+  </si>
+  <si>
+    <t>BUD2</t>
+  </si>
+  <si>
+    <t>(Near Közvágóhíd. Gubacsi út Tesco) moderate busy road close to intersection. people. traffic. party places. and mall close.</t>
+  </si>
+  <si>
+    <t>19.067378</t>
+  </si>
+  <si>
+    <t>47.479634</t>
+  </si>
+  <si>
+    <t>BUD3</t>
+  </si>
+  <si>
+    <t>(Boráros tér-fent) Busy intersection. bus station. with people. traffic. many office buildings.</t>
+  </si>
+  <si>
+    <t>19.066933</t>
+  </si>
+  <si>
+    <t>47.479971</t>
+  </si>
+  <si>
+    <t>BUD4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Boráros tér -lent) Busy intersection with people. traffic. many office buildings. </t>
+  </si>
+  <si>
+    <t>19.069323</t>
+  </si>
+  <si>
+    <t>47.481309</t>
+  </si>
+  <si>
+    <t>BUD5</t>
+  </si>
+  <si>
+    <t>(Near Boráros tér. Mester-Angyal u.) moderate busy road close to busy roads. many shops. restaurants. building blocks.</t>
+  </si>
+  <si>
+    <t>19.069358</t>
+  </si>
+  <si>
+    <t>47.485891</t>
+  </si>
+  <si>
+    <t>BUD6</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>(Corvin-negyed) busy intersection with people. traffic. schools and hospital nearby.</t>
+  </si>
+  <si>
+    <t>19.066088</t>
+  </si>
+  <si>
+    <t>47.487658</t>
+  </si>
+  <si>
+    <t>BUD7</t>
+  </si>
+  <si>
+    <t>(Near Corvin-negyed and Kálvin tér) moderate busy road with many office buildings. building blocks.</t>
+  </si>
+  <si>
+    <t>19.06179</t>
+  </si>
+  <si>
+    <t>47.489297</t>
+  </si>
+  <si>
+    <t>BUD8</t>
+  </si>
+  <si>
+    <t>(Kálvin tér) busy intersection with people. traffic. schools and hospital nearby.</t>
+  </si>
+  <si>
+    <t>19.055664</t>
+  </si>
+  <si>
+    <t>47.510258</t>
+  </si>
+  <si>
+    <t>BUD9</t>
+  </si>
+  <si>
+    <t>(Nyugati pu) busy intersection with people. traffic. schools and mall nearby.</t>
+  </si>
+  <si>
+    <t>19.053931</t>
+  </si>
+  <si>
+    <t>47.512085</t>
+  </si>
+  <si>
+    <t>BUD10</t>
+  </si>
+  <si>
+    <t>(near Nyugati pu. Kádár u) moderate busy street with people. traffic. hospital nearby.</t>
+  </si>
+  <si>
+    <t>19.037154</t>
+  </si>
+  <si>
+    <t>47.514736</t>
+  </si>
+  <si>
+    <t>BUD11</t>
+  </si>
+  <si>
+    <t>(Margit krt) busy road with with people. traffic. hospital nearby.</t>
+  </si>
+  <si>
+    <t>19.027087</t>
+  </si>
+  <si>
+    <t>47.507904</t>
+  </si>
+  <si>
+    <t>BUD12</t>
+  </si>
+  <si>
+    <t>(Széna tér) Busy intersection. bus station. with people. traffic. many office buildings. mall.</t>
+  </si>
+  <si>
+    <t>19.023974</t>
+  </si>
+  <si>
+    <t>47.508516</t>
+  </si>
+  <si>
+    <t>BUD13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(near Széna tér) moderate busy street with people. traffic. mall nearby. </t>
+  </si>
+  <si>
+    <t>19.024256</t>
+  </si>
+  <si>
+    <t>47.501953</t>
+  </si>
+  <si>
+    <t>BUD14</t>
+  </si>
+  <si>
+    <t>(Déli pu) Busy intersection. bus station. with people. traffic. many office buildings. schools and a big park.</t>
+  </si>
+  <si>
+    <t>19.021809</t>
+  </si>
+  <si>
+    <t>47.502454</t>
+  </si>
+  <si>
+    <t>BUD15</t>
+  </si>
+  <si>
+    <t>(near Déli pu. Városmajor u.) moderate busy street with people. traffic. many office buildings. schools and a hospital nearby.</t>
+  </si>
+  <si>
+    <t>27.546835</t>
+  </si>
+  <si>
+    <t>53.932023</t>
+  </si>
+  <si>
+    <t>MSQ1</t>
+  </si>
+  <si>
+    <t>Minsk</t>
+  </si>
+  <si>
+    <t>airmq.by</t>
+  </si>
+  <si>
+    <t>Busy intersection with heavy truck traffic, pedestrians, bikeroads</t>
+  </si>
+  <si>
+    <t>#03E2B8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -747,6 +960,17 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -786,14 +1010,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -816,12 +1048,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1151,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E51"/>
+    <sheetView tabSelected="1" topLeftCell="N64" workbookViewId="0">
+      <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1307,7 +1556,7 @@
         <v>99</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S21" si="0">J3&amp;A3&amp;","&amp;B3&amp;K3&amp;C3&amp;L3&amp;E3&amp;M3&amp;D3&amp;N3&amp;I3&amp;O3&amp;F3&amp;P3&amp;G3&amp;Q3&amp;H3&amp;R3</f>
+        <f t="shared" ref="S3:S67" si="0">J3&amp;A3&amp;","&amp;B3&amp;K3&amp;C3&amp;L3&amp;E3&amp;M3&amp;D3&amp;N3&amp;I3&amp;O3&amp;F3&amp;P3&amp;G3&amp;Q3&amp;H3&amp;R3</f>
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4306759,50.0723734]},"properties":{"id":"PRG2","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Traffic sensor, but also a refence point to CHMIs http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ALEG_CZ.html"}},</v>
       </c>
     </row>
@@ -2437,6 +2686,19 @@
       <c r="O22" t="s">
         <v>97</v>
       </c>
+      <c r="P22" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" t="s">
+        <v>99</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.049889,48.466098]},"properties":{"id":"DNK1","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"MOST-City\", bus station, entrance to the \"Central bridge\", crowded place"}},</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="86" thickBot="1">
       <c r="A23" s="6" t="s">
@@ -2484,6 +2746,19 @@
       <c r="O23" t="s">
         <v>97</v>
       </c>
+      <c r="P23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>100</v>
+      </c>
+      <c r="R23" t="s">
+        <v>99</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0460373,48.4642516]},"properties":{"id":"DNK2","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Heroiv Maidanu Square, bus station, pedestrian area, huge traffic"}},</v>
+      </c>
     </row>
     <row r="24" spans="1:19" ht="98" thickBot="1">
       <c r="A24" s="6" t="s">
@@ -2531,6 +2806,19 @@
       <c r="O24" t="s">
         <v>97</v>
       </c>
+      <c r="P24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>100</v>
+      </c>
+      <c r="R24" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0653546,48.4663951]},"properties":{"id":"DNK3","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Festival pier, pedestrian area, crowded place, the longest promenade in Ukraine"}},</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="98" thickBot="1">
       <c r="A25" s="6" t="s">
@@ -2578,6 +2866,19 @@
       <c r="O25" t="s">
         <v>97</v>
       </c>
+      <c r="P25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>100</v>
+      </c>
+      <c r="R25" t="s">
+        <v>99</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0733477,48.4084019]},"properties":{"id":"DNK4","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Cafe \"Fantaziya\", pedestrian area, small green area, housing area, schools"}},</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="86" thickBot="1">
       <c r="A26" s="6" t="s">
@@ -2625,6 +2926,19 @@
       <c r="O26" t="s">
         <v>97</v>
       </c>
+      <c r="P26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>100</v>
+      </c>
+      <c r="R26" t="s">
+        <v>99</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0629357,48.4243839]},"properties":{"id":"DNK5","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Kosmichnaya Street, roundabout, reference measurement station, huge traffic"}},</v>
+      </c>
     </row>
     <row r="27" spans="1:19" ht="98" thickBot="1">
       <c r="A27" s="6" t="s">
@@ -2672,6 +2986,19 @@
       <c r="O27" t="s">
         <v>97</v>
       </c>
+      <c r="P27" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>100</v>
+      </c>
+      <c r="R27" t="s">
+        <v>99</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.1318213,48.4039489]},"properties":{"id":"DNK6","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"House of culture \"Energetyk\", reference measurement station, residential area"}},</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="62" thickBot="1">
       <c r="A28" s="6" t="s">
@@ -2719,6 +3046,19 @@
       <c r="O28" t="s">
         <v>97</v>
       </c>
+      <c r="P28" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>100</v>
+      </c>
+      <c r="R28" t="s">
+        <v>99</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9474725,48.4872575]},"properties":{"id":"DNK7","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Novokodatskyi Park, ice arena, no traffic, city hospital"}},</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="122" thickBot="1">
       <c r="A29" s="6" t="s">
@@ -2766,6 +3106,19 @@
       <c r="O29" t="s">
         <v>97</v>
       </c>
+      <c r="P29" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>100</v>
+      </c>
+      <c r="R29" t="s">
+        <v>99</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9778414,48.4761675]},"properties":{"id":"DNK8","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Serhiia Nihoiana Avenue, reference measurement station, governmental building, metallurgical plant"}},</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="110" thickBot="1">
       <c r="A30" s="6" t="s">
@@ -2813,6 +3166,19 @@
       <c r="O30" t="s">
         <v>97</v>
       </c>
+      <c r="P30" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>100</v>
+      </c>
+      <c r="R30" t="s">
+        <v>99</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9899219,48.509473]},"properties":{"id":"DNK9","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Frunzenskyi\", huge traffic, residential area, shopping market"}},</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="98" thickBot="1">
       <c r="A31" s="6" t="s">
@@ -2860,6 +3226,19 @@
       <c r="O31" t="s">
         <v>97</v>
       </c>
+      <c r="P31" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>100</v>
+      </c>
+      <c r="R31" t="s">
+        <v>99</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0141552,48.5310254]},"properties":{"id":"DNK10","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Livoberezhnyi-3\", residential area, schools, small traffic"}},</v>
+      </c>
     </row>
     <row r="32" spans="1:19" ht="74" thickBot="1">
       <c r="A32" s="6" t="s">
@@ -2907,8 +3286,21 @@
       <c r="O32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="98" thickBot="1">
+      <c r="P32" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>100</v>
+      </c>
+      <c r="R32" t="s">
+        <v>99</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.089979,48.498245]},"properties":{"id":"DNK11","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Metallurgical plant \"Interpipe\", reference measurement station"}},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="98" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>142</v>
       </c>
@@ -2954,8 +3346,21 @@
       <c r="O33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="86" thickBot="1">
+      <c r="P33" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>100</v>
+      </c>
+      <c r="R33" t="s">
+        <v>99</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.05493,48.515423]},"properties":{"id":"DNK12","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Market \"Obraztsova\", Kalynova Street, schools, playgrounds, moderate traffic"}},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="86" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>145</v>
       </c>
@@ -3001,8 +3406,21 @@
       <c r="O34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" ht="86" thickBot="1">
+      <c r="P34" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>100</v>
+      </c>
+      <c r="R34" t="s">
+        <v>99</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0063704,48.4374452]},"properties":{"id":"DNK13","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Modern park \"Green Grove\", crowded place, green area, no traffic"}},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="86" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>148</v>
       </c>
@@ -3048,8 +3466,21 @@
       <c r="O35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" ht="74" thickBot="1">
+      <c r="P35" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>100</v>
+      </c>
+      <c r="R35" t="s">
+        <v>99</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0327317,48.5266199]},"properties":{"id":"DNK14","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Karavan\", huge traffic, crowded place, large market"}},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="74" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>151</v>
       </c>
@@ -3095,8 +3526,21 @@
       <c r="O36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="110" thickBot="1">
+      <c r="P36" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>100</v>
+      </c>
+      <c r="R36" t="s">
+        <v>99</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0152727,48.4772814]},"properties":{"id":"DNK15","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Central railway station, crowded place, huge traffic"}},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="110" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>155</v>
       </c>
@@ -3142,8 +3586,21 @@
       <c r="O37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" ht="86" thickBot="1">
+      <c r="P37" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>100</v>
+      </c>
+      <c r="R37" t="s">
+        <v>99</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0228672,48.4719534]},"properties":{"id":"DNK16","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Central city market \"Ozerka\", large parking slot, huge traffic, crowded place, central park"}},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="86" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>158</v>
       </c>
@@ -3189,8 +3646,21 @@
       <c r="O38" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" ht="62" thickBot="1">
+      <c r="P38" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>100</v>
+      </c>
+      <c r="R38" t="s">
+        <v>99</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9524035,48.5216731]},"properties":{"id":"DNK17","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"City Cardiac-Hospital #20, Amur-Nyzhnodniprovskyi District, no traffic"}},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="62" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>162</v>
       </c>
@@ -3236,8 +3706,21 @@
       <c r="O39" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" ht="86" thickBot="1">
+      <c r="P39" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>100</v>
+      </c>
+      <c r="R39" t="s">
+        <v>99</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0276852,48.3958008]},"properties":{"id":"DNK18","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Topolia\", city hospital, schools"}},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="86" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>165</v>
       </c>
@@ -3283,8 +3766,21 @@
       <c r="O40" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" ht="170" thickBot="1">
+      <c r="P40" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>100</v>
+      </c>
+      <c r="R40" t="s">
+        <v>99</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9801057,48.3936032]},"properties":{"id":"DNK19","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Krotova\", far from city center, schools, kindergarten"}},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="170" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>168</v>
       </c>
@@ -3330,8 +3826,21 @@
       <c r="O41" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" ht="98" thickBot="1">
+      <c r="P41" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>100</v>
+      </c>
+      <c r="R41" t="s">
+        <v>99</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0010162,48.4081437]},"properties":{"id":"DNK20","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Kvartal 12\", large intersection, market, shopping mall, huge traffic, pedestrian area, schools, kindergartens"}},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="98" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>171</v>
       </c>
@@ -3377,8 +3886,21 @@
       <c r="O42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" ht="86" thickBot="1">
+      <c r="P42" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>100</v>
+      </c>
+      <c r="R42" t="s">
+        <v>99</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9060767,48.480765]},"properties":{"id":"DNK21","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Parus\", schools, pedestrian area, bus station, small traffic"}},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="86" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>174</v>
       </c>
@@ -3424,8 +3946,21 @@
       <c r="O43" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" ht="134" thickBot="1">
+      <c r="P43" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>100</v>
+      </c>
+      <c r="R43" t="s">
+        <v>99</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0231467,48.425396]},"properties":{"id":"DNK22","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Dafi\", large roundabout, huge traffic, crowded place"}},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="134" thickBot="1">
       <c r="A44" s="6" t="s">
         <v>177</v>
       </c>
@@ -3471,8 +4006,21 @@
       <c r="O44" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" ht="74" thickBot="1">
+      <c r="P44" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>100</v>
+      </c>
+      <c r="R44" t="s">
+        <v>99</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0094192,48.428169]},"properties":{"id":"DNK23","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Tytova street, shopping mall \"Silpo\", small traffic, residential area, street market, schools, kindergarten"}},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="74" thickBot="1">
       <c r="A45" s="6" t="s">
         <v>180</v>
       </c>
@@ -3518,8 +4066,21 @@
       <c r="O45" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" ht="134" thickBot="1">
+      <c r="P45" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>100</v>
+      </c>
+      <c r="R45" t="s">
+        <v>99</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0593666,48.450057]},"properties":{"id":"DNK24","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Nagorka\", huge traffic, universities, hospitals"}},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="134" thickBot="1">
       <c r="A46" s="6" t="s">
         <v>183</v>
       </c>
@@ -3565,8 +4126,21 @@
       <c r="O46" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="98" thickBot="1">
+      <c r="P46" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>100</v>
+      </c>
+      <c r="R46" t="s">
+        <v>99</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.969635,48.461718]},"properties":{"id":"DNK25","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Petrovskogo street, shopping mall \"Varus\", children's clinical hospital #6, groceries stores, huge traffic"}},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="98" thickBot="1">
       <c r="A47" s="6" t="s">
         <v>186</v>
       </c>
@@ -3612,8 +4186,21 @@
       <c r="O47" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="74" thickBot="1">
+      <c r="P47" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>100</v>
+      </c>
+      <c r="R47" t="s">
+        <v>99</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0009117,48.4475965]},"properties":{"id":"DNK26","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Kaverina street, shopping malls, farmer's market, schools, huge traffic"}},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="74" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>190</v>
       </c>
@@ -3659,8 +4246,21 @@
       <c r="O48" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" ht="62" thickBot="1">
+      <c r="P48" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>100</v>
+      </c>
+      <c r="R48" t="s">
+        <v>99</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0640127,48.4819102]},"properties":{"id":"DNK27","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Solnechnyi\", huge traffic, small city park"}},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="62" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>193</v>
       </c>
@@ -3706,8 +4306,21 @@
       <c r="O49" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" ht="74" thickBot="1">
+      <c r="P49" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>100</v>
+      </c>
+      <c r="R49" t="s">
+        <v>99</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0488214,48.4916231]},"properties":{"id":"DNK28","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Clinical Hospital #9, moderate traffic, schools"}},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="74" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>197</v>
       </c>
@@ -3753,8 +4366,21 @@
       <c r="O50" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" ht="62" thickBot="1">
+      <c r="P50" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>100</v>
+      </c>
+      <c r="R50" t="s">
+        <v>99</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0815529,48.4607313]},"properties":{"id":"DNK29","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Monastyrskyi island, Aquarium, green area, city park, no traffic"}},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="62" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>201</v>
       </c>
@@ -3800,9 +4426,984 @@
       <c r="O51" t="s">
         <v>97</v>
       </c>
+      <c r="P51" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>100</v>
+      </c>
+      <c r="R51" t="s">
+        <v>99</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0700553,48.4626939]},"properties":{"id":"DNK30","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Park \"Shevchenko\", no traffic, green area"}},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="97">
+      <c r="A52" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8">
+        <v>1</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J52" t="s">
+        <v>92</v>
+      </c>
+      <c r="K52" t="s">
+        <v>93</v>
+      </c>
+      <c r="L52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M52" t="s">
+        <v>95</v>
+      </c>
+      <c r="N52" t="s">
+        <v>96</v>
+      </c>
+      <c r="O52" t="s">
+        <v>97</v>
+      </c>
+      <c r="P52" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>100</v>
+      </c>
+      <c r="R52" t="s">
+        <v>99</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.075728,47.467912]},"properties":{"id":"BUD1","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Közvágóhíd megálló) Busy intersection with people. traffic. party places. theatre nearby."}},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="145">
+      <c r="A53" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="8">
+        <v>2</v>
+      </c>
+      <c r="G53" s="8">
+        <v>1</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+      <c r="K53" t="s">
+        <v>93</v>
+      </c>
+      <c r="L53" t="s">
+        <v>94</v>
+      </c>
+      <c r="M53" t="s">
+        <v>95</v>
+      </c>
+      <c r="N53" t="s">
+        <v>96</v>
+      </c>
+      <c r="O53" t="s">
+        <v>97</v>
+      </c>
+      <c r="P53" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>100</v>
+      </c>
+      <c r="R53" t="s">
+        <v>99</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.080888,47.466466]},"properties":{"id":"BUD2","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Közvágóhíd. Gubacsi út Tesco) moderate busy road close to intersection. people. traffic. party places. and mall close."}},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="97">
+      <c r="A54" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="8">
+        <v>2</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J54" t="s">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s">
+        <v>93</v>
+      </c>
+      <c r="L54" t="s">
+        <v>94</v>
+      </c>
+      <c r="M54" t="s">
+        <v>95</v>
+      </c>
+      <c r="N54" t="s">
+        <v>96</v>
+      </c>
+      <c r="O54" t="s">
+        <v>97</v>
+      </c>
+      <c r="P54" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>100</v>
+      </c>
+      <c r="R54" t="s">
+        <v>99</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.067378,47.479634]},"properties":{"id":"BUD3","group":"CAAG","city":"","color":"#3fc9f0","height":2,"trafic":1,"info":"(Boráros tér-fent) Busy intersection. bus station. with people. traffic. many office buildings."}},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="85">
+      <c r="A55" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" s="8">
+        <v>1</v>
+      </c>
+      <c r="G55" s="8">
+        <v>1</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+      <c r="K55" t="s">
+        <v>93</v>
+      </c>
+      <c r="L55" t="s">
+        <v>94</v>
+      </c>
+      <c r="M55" t="s">
+        <v>95</v>
+      </c>
+      <c r="N55" t="s">
+        <v>96</v>
+      </c>
+      <c r="O55" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>100</v>
+      </c>
+      <c r="R55" t="s">
+        <v>99</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066933,47.479971]},"properties":{"id":"BUD4","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Boráros tér -lent) Busy intersection with people. traffic. many office buildings. "}},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="133">
+      <c r="A56" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="8">
+        <v>2</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+      <c r="K56" t="s">
+        <v>93</v>
+      </c>
+      <c r="L56" t="s">
+        <v>94</v>
+      </c>
+      <c r="M56" t="s">
+        <v>95</v>
+      </c>
+      <c r="N56" t="s">
+        <v>96</v>
+      </c>
+      <c r="O56" t="s">
+        <v>97</v>
+      </c>
+      <c r="P56" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>100</v>
+      </c>
+      <c r="R56" t="s">
+        <v>99</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069323,47.481309]},"properties":{"id":"BUD5","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Boráros tér. Mester-Angyal u.) moderate busy road close to busy roads. many shops. restaurants. building blocks."}},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="97">
+      <c r="A57" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+      <c r="K57" t="s">
+        <v>93</v>
+      </c>
+      <c r="L57" t="s">
+        <v>94</v>
+      </c>
+      <c r="M57" t="s">
+        <v>95</v>
+      </c>
+      <c r="N57" t="s">
+        <v>96</v>
+      </c>
+      <c r="O57" t="s">
+        <v>97</v>
+      </c>
+      <c r="P57" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>100</v>
+      </c>
+      <c r="R57" t="s">
+        <v>99</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069358,47.485891]},"properties":{"id":"BUD6","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Corvin-negyed) busy intersection with people. traffic. schools and hospital nearby."}},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="121">
+      <c r="A58" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G58" s="8">
+        <v>1</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J58" t="s">
+        <v>92</v>
+      </c>
+      <c r="K58" t="s">
+        <v>93</v>
+      </c>
+      <c r="L58" t="s">
+        <v>94</v>
+      </c>
+      <c r="M58" t="s">
+        <v>95</v>
+      </c>
+      <c r="N58" t="s">
+        <v>96</v>
+      </c>
+      <c r="O58" t="s">
+        <v>97</v>
+      </c>
+      <c r="P58" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>100</v>
+      </c>
+      <c r="R58" t="s">
+        <v>99</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066088,47.487658]},"properties":{"id":"BUD7","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Near Corvin-negyed and Kálvin tér) moderate busy road with many office buildings. building blocks."}},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="97">
+      <c r="A59" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="8">
+        <v>2</v>
+      </c>
+      <c r="G59" s="8">
+        <v>1</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+      <c r="K59" t="s">
+        <v>93</v>
+      </c>
+      <c r="L59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M59" t="s">
+        <v>95</v>
+      </c>
+      <c r="N59" t="s">
+        <v>96</v>
+      </c>
+      <c r="O59" t="s">
+        <v>97</v>
+      </c>
+      <c r="P59" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>100</v>
+      </c>
+      <c r="R59" t="s">
+        <v>99</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.06179,47.489297]},"properties":{"id":"BUD8","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kálvin tér) busy intersection with people. traffic. schools and hospital nearby."}},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="85">
+      <c r="A60" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G60" s="8">
+        <v>1</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J60" t="s">
+        <v>92</v>
+      </c>
+      <c r="K60" t="s">
+        <v>93</v>
+      </c>
+      <c r="L60" t="s">
+        <v>94</v>
+      </c>
+      <c r="M60" t="s">
+        <v>95</v>
+      </c>
+      <c r="N60" t="s">
+        <v>96</v>
+      </c>
+      <c r="O60" t="s">
+        <v>97</v>
+      </c>
+      <c r="P60" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>100</v>
+      </c>
+      <c r="R60" t="s">
+        <v>99</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.055664,47.510258]},"properties":{"id":"BUD9","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Nyugati pu) busy intersection with people. traffic. schools and mall nearby."}},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="97">
+      <c r="A61" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F61" s="8">
+        <v>2</v>
+      </c>
+      <c r="G61" s="8">
+        <v>1</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+      <c r="K61" t="s">
+        <v>93</v>
+      </c>
+      <c r="L61" t="s">
+        <v>94</v>
+      </c>
+      <c r="M61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N61" t="s">
+        <v>96</v>
+      </c>
+      <c r="O61" t="s">
+        <v>97</v>
+      </c>
+      <c r="P61" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>100</v>
+      </c>
+      <c r="R61" t="s">
+        <v>99</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.053931,47.512085]},"properties":{"id":"BUD10","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near Nyugati pu. Kádár u) moderate busy street with people. traffic. hospital nearby."}},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="85">
+      <c r="A62" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F62" s="8">
+        <v>2</v>
+      </c>
+      <c r="G62" s="8">
+        <v>1</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+      <c r="K62" t="s">
+        <v>93</v>
+      </c>
+      <c r="L62" t="s">
+        <v>94</v>
+      </c>
+      <c r="M62" t="s">
+        <v>95</v>
+      </c>
+      <c r="N62" t="s">
+        <v>96</v>
+      </c>
+      <c r="O62" t="s">
+        <v>97</v>
+      </c>
+      <c r="P62" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>100</v>
+      </c>
+      <c r="R62" t="s">
+        <v>99</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.037154,47.514736]},"properties":{"id":"BUD11","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Margit krt) busy road with with people. traffic. hospital nearby."}},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="109">
+      <c r="A63" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F63" s="8">
+        <v>2</v>
+      </c>
+      <c r="G63" s="8">
+        <v>1</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L63" t="s">
+        <v>94</v>
+      </c>
+      <c r="M63" t="s">
+        <v>95</v>
+      </c>
+      <c r="N63" t="s">
+        <v>96</v>
+      </c>
+      <c r="O63" t="s">
+        <v>97</v>
+      </c>
+      <c r="P63" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>100</v>
+      </c>
+      <c r="R63" t="s">
+        <v>99</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.027087,47.507904]},"properties":{"id":"BUD12","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Széna tér) Busy intersection. bus station. with people. traffic. many office buildings. mall."}},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="73">
+      <c r="A64" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G64" s="8">
+        <v>1</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64" t="s">
+        <v>93</v>
+      </c>
+      <c r="L64" t="s">
+        <v>94</v>
+      </c>
+      <c r="M64" t="s">
+        <v>95</v>
+      </c>
+      <c r="N64" t="s">
+        <v>96</v>
+      </c>
+      <c r="O64" t="s">
+        <v>97</v>
+      </c>
+      <c r="P64" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>100</v>
+      </c>
+      <c r="R64" t="s">
+        <v>99</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.023974,47.508516]},"properties":{"id":"BUD13","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Széna tér) moderate busy street with people. traffic. mall nearby. "}},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="121">
+      <c r="A65" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+      <c r="K65" t="s">
+        <v>93</v>
+      </c>
+      <c r="L65" t="s">
+        <v>94</v>
+      </c>
+      <c r="M65" t="s">
+        <v>95</v>
+      </c>
+      <c r="N65" t="s">
+        <v>96</v>
+      </c>
+      <c r="O65" t="s">
+        <v>97</v>
+      </c>
+      <c r="P65" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>100</v>
+      </c>
+      <c r="R65" t="s">
+        <v>99</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.024256,47.501953]},"properties":{"id":"BUD14","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Déli pu) Busy intersection. bus station. with people. traffic. many office buildings. schools and a big park."}},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="134" thickBot="1">
+      <c r="A66" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G66" s="8">
+        <v>1</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J66" t="s">
+        <v>92</v>
+      </c>
+      <c r="K66" t="s">
+        <v>93</v>
+      </c>
+      <c r="L66" t="s">
+        <v>94</v>
+      </c>
+      <c r="M66" t="s">
+        <v>95</v>
+      </c>
+      <c r="N66" t="s">
+        <v>96</v>
+      </c>
+      <c r="O66" t="s">
+        <v>97</v>
+      </c>
+      <c r="P66" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>100</v>
+      </c>
+      <c r="R66" t="s">
+        <v>99</v>
+      </c>
+      <c r="S66" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.021809,47.502454]},"properties":{"id":"BUD15","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Déli pu. Városmajor u.) moderate busy street with people. traffic. many office buildings. schools and a hospital nearby."}},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="74" thickBot="1">
+      <c r="A67" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="F67" s="2">
+        <v>3</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="J67" t="s">
+        <v>92</v>
+      </c>
+      <c r="K67" t="s">
+        <v>93</v>
+      </c>
+      <c r="L67" t="s">
+        <v>94</v>
+      </c>
+      <c r="M67" t="s">
+        <v>95</v>
+      </c>
+      <c r="N67" t="s">
+        <v>96</v>
+      </c>
+      <c r="O67" t="s">
+        <v>97</v>
+      </c>
+      <c r="P67" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>100</v>
+      </c>
+      <c r="R67" t="s">
+        <v>99</v>
+      </c>
+      <c r="S67" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.546835,53.932023]},"properties":{"id":"MSQ1","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Busy intersection with heavy truck traffic, pedestrians, bikeroads"}},</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E67" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/Workbook1.xlsx
+++ b/doc/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="0" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="450">
   <si>
     <t>senzorvzduchu.cz</t>
   </si>
@@ -904,6 +904,471 @@
   </si>
   <si>
     <t>#03E2B8</t>
+  </si>
+  <si>
+    <t>(Közvágóhíd megálló) Busy intersection with people, traffic, party places, theatre nearby.</t>
+  </si>
+  <si>
+    <t>(Near Közvágóhíd, Gubacsi út Tesco) moderate busy road close to intersection, people, traffic, party places, and mall close.</t>
+  </si>
+  <si>
+    <t>(Boráros tér-fent) Busy intersection, bus station, with people, traffic, many office buildings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Boráros tér -lent) Busy intersection with people, traffic, many office buildings. </t>
+  </si>
+  <si>
+    <t>(Near Boráros tér, Mester-Angyal u.) moderate busy road close to busy roads, many shops, restaurants, building blocks.</t>
+  </si>
+  <si>
+    <t>(Corvin-negyed) busy intersection with people, traffic, schools and hospital nearby.</t>
+  </si>
+  <si>
+    <t>(Near Corvin-negyed and Kálvin tér) moderate busy road with many office buildings, building blocks.</t>
+  </si>
+  <si>
+    <t>(Kálvin tér) busy intersection with people, traffic, schools and hospital nearby.</t>
+  </si>
+  <si>
+    <t>(Nyugati pu) busy intersection with people, traffic, schools and mall nearby.</t>
+  </si>
+  <si>
+    <t>(near Nyugati pu, Kádár u) moderate busy street with people, traffic, hospital nearby.</t>
+  </si>
+  <si>
+    <t>(Margit krt) busy road with with people, traffic, hospital nearby,</t>
+  </si>
+  <si>
+    <t>(Széna tér) Busy intersection, bus station, with people, traffic, many office buildings, mall.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(near Széna tér) moderate busy street with people, traffic, mall nearby. </t>
+  </si>
+  <si>
+    <t>(Déli pu) Busy intersection, bus station, with people, traffic, many office buildings, schools and a big park.</t>
+  </si>
+  <si>
+    <t>(near Déli pu, Városmajor u.) moderate busy street with people, traffic, many office buildings, schools and a hospital nearby.</t>
+  </si>
+  <si>
+    <t>19.078942</t>
+  </si>
+  <si>
+    <t>47.496672</t>
+  </si>
+  <si>
+    <t>BUD16</t>
+  </si>
+  <si>
+    <t>(II.János Pál pápa tér), green park surrounded by residential buildings and moderate traffic.</t>
+  </si>
+  <si>
+    <t>19.041137</t>
+  </si>
+  <si>
+    <t>47.540964</t>
+  </si>
+  <si>
+    <t>BUD17</t>
+  </si>
+  <si>
+    <t>(Flórián tér) Busy intersection, bus, tram station, with people, traffic, many resitential buildings, hospital, shopping mall, schools.</t>
+  </si>
+  <si>
+    <t>19.038189</t>
+  </si>
+  <si>
+    <t>47.543455</t>
+  </si>
+  <si>
+    <t>BUD18</t>
+  </si>
+  <si>
+    <t>(nearFlórián tér, Kórház u.) moderate busy street with many residential building blocks, shops, people, hospital.</t>
+  </si>
+  <si>
+    <t>19.088348</t>
+  </si>
+  <si>
+    <t>47.518866</t>
+  </si>
+  <si>
+    <t>BUD19</t>
+  </si>
+  <si>
+    <t>(Kacsóh Pongrác úti megálló) Busy intersection, entry to highway, bus, tram station, with people, traffic, many resitential buildings,  hospital, close to UNESCO city park and bath.</t>
+  </si>
+  <si>
+    <t>19.086176</t>
+  </si>
+  <si>
+    <t>47.518239</t>
+  </si>
+  <si>
+    <t>BUD20</t>
+  </si>
+  <si>
+    <t>(Near to Kacsóh Pongrác), busy road with public transport, traffic, people,beside the UNESCO city park, residential buildings.</t>
+  </si>
+  <si>
+    <t>19.090144</t>
+  </si>
+  <si>
+    <t>47.560772</t>
+  </si>
+  <si>
+    <t>BUD21</t>
+  </si>
+  <si>
+    <t>(Újpest-Városközpont) busy intersection with public transport,traffic, people,residential building blocks, shops.</t>
+  </si>
+  <si>
+    <t>19.088294</t>
+  </si>
+  <si>
+    <t>47.561605</t>
+  </si>
+  <si>
+    <t>BUD22</t>
+  </si>
+  <si>
+    <t>(Near Újpest-Városközpont) moderate busy street with a park, residential buildings, mall, shops, traffic.</t>
+  </si>
+  <si>
+    <t>19.089486</t>
+  </si>
+  <si>
+    <t>47.478829</t>
+  </si>
+  <si>
+    <t>BUD23</t>
+  </si>
+  <si>
+    <t>(Nagyvárad tér) busy intersection with traffic, people, school,hospitals, close to green park.</t>
+  </si>
+  <si>
+    <t>19.094298</t>
+  </si>
+  <si>
+    <t>47.480592</t>
+  </si>
+  <si>
+    <t>BUD24</t>
+  </si>
+  <si>
+    <t>(near to Nagyvárad tér), moderate busy street with traffic,people, residential buildings, schools, hospital, close to green park.</t>
+  </si>
+  <si>
+    <t>19.094559</t>
+  </si>
+  <si>
+    <t>47.521894</t>
+  </si>
+  <si>
+    <t>BUD25</t>
+  </si>
+  <si>
+    <t>(near to highway M3 and city park). moderate busy street with people. residential building blocks. traffic.</t>
+  </si>
+  <si>
+    <t>19.016553</t>
+  </si>
+  <si>
+    <t>47.466128</t>
+  </si>
+  <si>
+    <t>BUD26</t>
+  </si>
+  <si>
+    <t>(Budaörsi út. near Kelenföld pu) busy road with people. traffic. train and bus station close. residential buildings and offices.</t>
+  </si>
+  <si>
+    <t>19.019297</t>
+  </si>
+  <si>
+    <t>47.467142</t>
+  </si>
+  <si>
+    <t>BUD27</t>
+  </si>
+  <si>
+    <t>(near to Budaörsi út). moderate busy street with people. traffic. residential buildings.</t>
+  </si>
+  <si>
+    <t>19.136842</t>
+  </si>
+  <si>
+    <t>47.503904</t>
+  </si>
+  <si>
+    <t>BUD28</t>
+  </si>
+  <si>
+    <t>(Örs vezér tér) busy intersection with people. traffic. every kind of public transport. shopping mall. close to hospital.</t>
+  </si>
+  <si>
+    <t>19.133894</t>
+  </si>
+  <si>
+    <t>47.505597</t>
+  </si>
+  <si>
+    <t>BUD29</t>
+  </si>
+  <si>
+    <t>(near to Örs vezér tér).moderate busy street with people. traffic. hospital.</t>
+  </si>
+  <si>
+    <t>19.100679</t>
+  </si>
+  <si>
+    <t>47.476853</t>
+  </si>
+  <si>
+    <t>BUD30</t>
+  </si>
+  <si>
+    <t>0/1</t>
+  </si>
+  <si>
+    <t>(Népliget). moderate or no traffic. green park. people. close to bus station and busy road.</t>
+  </si>
+  <si>
+    <t>Arlouskaya st., busy intersection with heavy truck traffic, pedestrians, bikeroads</t>
+  </si>
+  <si>
+    <t>27.671079</t>
+  </si>
+  <si>
+    <t>53.945368</t>
+  </si>
+  <si>
+    <t>MSQ2</t>
+  </si>
+  <si>
+    <t>Uručča, residential area with open access to the heavily loaded outer city ring</t>
+  </si>
+  <si>
+    <t>27.608928</t>
+  </si>
+  <si>
+    <t>53.923499</t>
+  </si>
+  <si>
+    <t>MSQ3</t>
+  </si>
+  <si>
+    <t>Independence ave/Kalinina sq., city center, heavy traffic</t>
+  </si>
+  <si>
+    <t>27.587808</t>
+  </si>
+  <si>
+    <t>53.920724</t>
+  </si>
+  <si>
+    <t>MSQ4</t>
+  </si>
+  <si>
+    <t>Kolasa st., Technical university campus, heavy traffic</t>
+  </si>
+  <si>
+    <t>27.580108</t>
+  </si>
+  <si>
+    <t>53.887069</t>
+  </si>
+  <si>
+    <t>MSQ5</t>
+  </si>
+  <si>
+    <t>Partizansky ave, traffic interchange, heavy traffic, railway nearby</t>
+  </si>
+  <si>
+    <t>27.609916</t>
+  </si>
+  <si>
+    <t>53.878242</t>
+  </si>
+  <si>
+    <t>MSQ6</t>
+  </si>
+  <si>
+    <t>Vaneeva st., traffic circle, lots of pedestrians</t>
+  </si>
+  <si>
+    <t>27.568392</t>
+  </si>
+  <si>
+    <t>53.875016</t>
+  </si>
+  <si>
+    <t>MSQ7</t>
+  </si>
+  <si>
+    <t>Mayakovskogo st., heavy traffic, pedestrians</t>
+  </si>
+  <si>
+    <t>27.606739</t>
+  </si>
+  <si>
+    <t>53.862187</t>
+  </si>
+  <si>
+    <t>MSQ8</t>
+  </si>
+  <si>
+    <t>Plehanova st., main crossroads in large residential district</t>
+  </si>
+  <si>
+    <t>27.639528</t>
+  </si>
+  <si>
+    <t>53.892688</t>
+  </si>
+  <si>
+    <t>MSQ9</t>
+  </si>
+  <si>
+    <t>Vaupshasov st., heavy transit traffic</t>
+  </si>
+  <si>
+    <t>27.655988</t>
+  </si>
+  <si>
+    <t>53.879158</t>
+  </si>
+  <si>
+    <t>MSQ10</t>
+  </si>
+  <si>
+    <t>Radialnaya, heavy traffic, highly polluted industrial area (tractor works)</t>
+  </si>
+  <si>
+    <t>27.53292</t>
+  </si>
+  <si>
+    <t>53.839494</t>
+  </si>
+  <si>
+    <t>MSQ11</t>
+  </si>
+  <si>
+    <t>Kizhevatova st., heavy traffic, city entrance</t>
+  </si>
+  <si>
+    <t>27.538454</t>
+  </si>
+  <si>
+    <t>53.895705</t>
+  </si>
+  <si>
+    <t>MSQ12</t>
+  </si>
+  <si>
+    <t>Zetkin st., local traffic interchange</t>
+  </si>
+  <si>
+    <t>27.497873</t>
+  </si>
+  <si>
+    <t>53.909921</t>
+  </si>
+  <si>
+    <t>MSQ13</t>
+  </si>
+  <si>
+    <t>Pushkin ave, 2nd city ring, heavy loaded</t>
+  </si>
+  <si>
+    <t>27.41299</t>
+  </si>
+  <si>
+    <t>53.916667</t>
+  </si>
+  <si>
+    <t>MSQ14</t>
+  </si>
+  <si>
+    <t>Outer city ring near large residential area</t>
+  </si>
+  <si>
+    <t>27.523712</t>
+  </si>
+  <si>
+    <t>53.913358</t>
+  </si>
+  <si>
+    <t>MSQ15</t>
+  </si>
+  <si>
+    <t>Timiryazev st., heavy traffic, next to the reference station of BelHydroMet</t>
+  </si>
+  <si>
+    <t>27.71229</t>
+  </si>
+  <si>
+    <t>53.947473</t>
+  </si>
+  <si>
+    <t>MSQ16</t>
+  </si>
+  <si>
+    <t>Uručča, residential area, next to the reference station of BelHydroMet</t>
+  </si>
+  <si>
+    <t>27.615162</t>
+  </si>
+  <si>
+    <t>53.913675</t>
+  </si>
+  <si>
+    <t>MSQ17</t>
+  </si>
+  <si>
+    <t>City center, local traffic interchange</t>
+  </si>
+  <si>
+    <t>27.575205</t>
+  </si>
+  <si>
+    <t>53.941037</t>
+  </si>
+  <si>
+    <t>MSQ18</t>
+  </si>
+  <si>
+    <t>Mozhaisky st., calm residential area</t>
+  </si>
+  <si>
+    <t>27.530621</t>
+  </si>
+  <si>
+    <t>53.969048</t>
+  </si>
+  <si>
+    <t>MSQ19</t>
+  </si>
+  <si>
+    <t>Outer city ring</t>
+  </si>
+  <si>
+    <t>MSQ20</t>
+  </si>
+  <si>
+    <t>Center of city Botanic garden</t>
+  </si>
+  <si>
+    <t>27.576477</t>
+  </si>
+  <si>
+    <t>53.907919</t>
+  </si>
+  <si>
+    <t>MSQ21</t>
+  </si>
+  <si>
+    <t>Victory sq., traffic circle, heavy traffic, lots of pedestrians, bikeroad</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1475,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1024,8 +1489,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1057,14 +1529,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1400,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N64" workbookViewId="0">
-      <selection activeCell="S67" sqref="S67"/>
+    <sheetView tabSelected="1" topLeftCell="H90" workbookViewId="0">
+      <selection activeCell="S98" sqref="S98:S118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1556,7 +2048,7 @@
         <v>99</v>
       </c>
       <c r="S3" t="str">
-        <f t="shared" ref="S3:S67" si="0">J3&amp;A3&amp;","&amp;B3&amp;K3&amp;C3&amp;L3&amp;E3&amp;M3&amp;D3&amp;N3&amp;I3&amp;O3&amp;F3&amp;P3&amp;G3&amp;Q3&amp;H3&amp;R3</f>
+        <f t="shared" ref="S3:S68" si="0">J3&amp;A3&amp;","&amp;B3&amp;K3&amp;C3&amp;L3&amp;E3&amp;M3&amp;D3&amp;N3&amp;I3&amp;O3&amp;F3&amp;P3&amp;G3&amp;Q3&amp;H3&amp;R3</f>
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4306759,50.0723734]},"properties":{"id":"PRG2","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Traffic sensor, but also a refence point to CHMIs http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ALEG_CZ.html"}},</v>
       </c>
     </row>
@@ -5398,9 +5890,3088 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.546835,53.932023]},"properties":{"id":"MSQ1","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Busy intersection with heavy truck traffic, pedestrians, bikeroads"}},</v>
       </c>
     </row>
+    <row r="68" spans="1:19" ht="97">
+      <c r="A68" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F68" s="8">
+        <v>2</v>
+      </c>
+      <c r="G68" s="8">
+        <v>1</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J68" t="s">
+        <v>92</v>
+      </c>
+      <c r="K68" t="s">
+        <v>93</v>
+      </c>
+      <c r="L68" t="s">
+        <v>94</v>
+      </c>
+      <c r="M68" t="s">
+        <v>95</v>
+      </c>
+      <c r="N68" t="s">
+        <v>96</v>
+      </c>
+      <c r="O68" t="s">
+        <v>97</v>
+      </c>
+      <c r="P68" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>100</v>
+      </c>
+      <c r="R68" t="s">
+        <v>99</v>
+      </c>
+      <c r="S68" t="str">
+        <f t="shared" si="0"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.075728,47.467912]},"properties":{"id":"BUD1","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Közvágóhíd megálló) Busy intersection with people, traffic, party places, theatre nearby."}},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="145">
+      <c r="A69" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F69" s="8">
+        <v>2</v>
+      </c>
+      <c r="G69" s="8">
+        <v>1</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J69" t="s">
+        <v>92</v>
+      </c>
+      <c r="K69" t="s">
+        <v>93</v>
+      </c>
+      <c r="L69" t="s">
+        <v>94</v>
+      </c>
+      <c r="M69" t="s">
+        <v>95</v>
+      </c>
+      <c r="N69" t="s">
+        <v>96</v>
+      </c>
+      <c r="O69" t="s">
+        <v>97</v>
+      </c>
+      <c r="P69" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>100</v>
+      </c>
+      <c r="R69" t="s">
+        <v>99</v>
+      </c>
+      <c r="S69" t="str">
+        <f t="shared" ref="S69:S118" si="1">J69&amp;A69&amp;","&amp;B69&amp;K69&amp;C69&amp;L69&amp;E69&amp;M69&amp;D69&amp;N69&amp;I69&amp;O69&amp;F69&amp;P69&amp;G69&amp;Q69&amp;H69&amp;R69</f>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.080888,47.466466]},"properties":{"id":"BUD2","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Közvágóhíd, Gubacsi út Tesco) moderate busy road close to intersection, people, traffic, party places, and mall close."}},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="97">
+      <c r="A70" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" s="8">
+        <v>2</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J70" t="s">
+        <v>92</v>
+      </c>
+      <c r="K70" t="s">
+        <v>93</v>
+      </c>
+      <c r="L70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M70" t="s">
+        <v>95</v>
+      </c>
+      <c r="N70" t="s">
+        <v>96</v>
+      </c>
+      <c r="O70" t="s">
+        <v>97</v>
+      </c>
+      <c r="P70" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>100</v>
+      </c>
+      <c r="R70" t="s">
+        <v>99</v>
+      </c>
+      <c r="S70" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.067378,47.479634]},"properties":{"id":"BUD3","group":"CAAG","city":"","color":"#3fc9f0","height":2,"trafic":1,"info":"(Boráros tér-fent) Busy intersection, bus station, with people, traffic, many office buildings."}},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="85">
+      <c r="A71" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F71" s="8">
+        <v>1</v>
+      </c>
+      <c r="G71" s="8">
+        <v>1</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J71" t="s">
+        <v>92</v>
+      </c>
+      <c r="K71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L71" t="s">
+        <v>94</v>
+      </c>
+      <c r="M71" t="s">
+        <v>95</v>
+      </c>
+      <c r="N71" t="s">
+        <v>96</v>
+      </c>
+      <c r="O71" t="s">
+        <v>97</v>
+      </c>
+      <c r="P71" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>100</v>
+      </c>
+      <c r="R71" t="s">
+        <v>99</v>
+      </c>
+      <c r="S71" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066933,47.479971]},"properties":{"id":"BUD4","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Boráros tér -lent) Busy intersection with people, traffic, many office buildings. "}},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="133">
+      <c r="A72" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F72" s="8">
+        <v>2</v>
+      </c>
+      <c r="G72" s="8">
+        <v>1</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J72" t="s">
+        <v>92</v>
+      </c>
+      <c r="K72" t="s">
+        <v>93</v>
+      </c>
+      <c r="L72" t="s">
+        <v>94</v>
+      </c>
+      <c r="M72" t="s">
+        <v>95</v>
+      </c>
+      <c r="N72" t="s">
+        <v>96</v>
+      </c>
+      <c r="O72" t="s">
+        <v>97</v>
+      </c>
+      <c r="P72" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>100</v>
+      </c>
+      <c r="R72" t="s">
+        <v>99</v>
+      </c>
+      <c r="S72" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069323,47.481309]},"properties":{"id":"BUD5","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Boráros tér, Mester-Angyal u.) moderate busy road close to busy roads, many shops, restaurants, building blocks."}},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="97">
+      <c r="A73" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G73" s="8">
+        <v>1</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J73" t="s">
+        <v>92</v>
+      </c>
+      <c r="K73" t="s">
+        <v>93</v>
+      </c>
+      <c r="L73" t="s">
+        <v>94</v>
+      </c>
+      <c r="M73" t="s">
+        <v>95</v>
+      </c>
+      <c r="N73" t="s">
+        <v>96</v>
+      </c>
+      <c r="O73" t="s">
+        <v>97</v>
+      </c>
+      <c r="P73" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>100</v>
+      </c>
+      <c r="R73" t="s">
+        <v>99</v>
+      </c>
+      <c r="S73" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069358,47.485891]},"properties":{"id":"BUD6","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Corvin-negyed) busy intersection with people, traffic, schools and hospital nearby."}},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="121">
+      <c r="A74" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J74" t="s">
+        <v>92</v>
+      </c>
+      <c r="K74" t="s">
+        <v>93</v>
+      </c>
+      <c r="L74" t="s">
+        <v>94</v>
+      </c>
+      <c r="M74" t="s">
+        <v>95</v>
+      </c>
+      <c r="N74" t="s">
+        <v>96</v>
+      </c>
+      <c r="O74" t="s">
+        <v>97</v>
+      </c>
+      <c r="P74" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>100</v>
+      </c>
+      <c r="R74" t="s">
+        <v>99</v>
+      </c>
+      <c r="S74" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066088,47.487658]},"properties":{"id":"BUD7","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Near Corvin-negyed and Kálvin tér) moderate busy road with many office buildings, building blocks."}},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="97">
+      <c r="A75" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F75" s="8">
+        <v>2</v>
+      </c>
+      <c r="G75" s="8">
+        <v>1</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J75" t="s">
+        <v>92</v>
+      </c>
+      <c r="K75" t="s">
+        <v>93</v>
+      </c>
+      <c r="L75" t="s">
+        <v>94</v>
+      </c>
+      <c r="M75" t="s">
+        <v>95</v>
+      </c>
+      <c r="N75" t="s">
+        <v>96</v>
+      </c>
+      <c r="O75" t="s">
+        <v>97</v>
+      </c>
+      <c r="P75" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>100</v>
+      </c>
+      <c r="R75" t="s">
+        <v>99</v>
+      </c>
+      <c r="S75" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.06179,47.489297]},"properties":{"id":"BUD8","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kálvin tér) busy intersection with people, traffic, schools and hospital nearby."}},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="85">
+      <c r="A76" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G76" s="8">
+        <v>1</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J76" t="s">
+        <v>92</v>
+      </c>
+      <c r="K76" t="s">
+        <v>93</v>
+      </c>
+      <c r="L76" t="s">
+        <v>94</v>
+      </c>
+      <c r="M76" t="s">
+        <v>95</v>
+      </c>
+      <c r="N76" t="s">
+        <v>96</v>
+      </c>
+      <c r="O76" t="s">
+        <v>97</v>
+      </c>
+      <c r="P76" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>100</v>
+      </c>
+      <c r="R76" t="s">
+        <v>99</v>
+      </c>
+      <c r="S76" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.055664,47.510258]},"properties":{"id":"BUD9","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Nyugati pu) busy intersection with people, traffic, schools and mall nearby."}},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="97">
+      <c r="A77" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F77" s="8">
+        <v>2</v>
+      </c>
+      <c r="G77" s="8">
+        <v>1</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J77" t="s">
+        <v>92</v>
+      </c>
+      <c r="K77" t="s">
+        <v>93</v>
+      </c>
+      <c r="L77" t="s">
+        <v>94</v>
+      </c>
+      <c r="M77" t="s">
+        <v>95</v>
+      </c>
+      <c r="N77" t="s">
+        <v>96</v>
+      </c>
+      <c r="O77" t="s">
+        <v>97</v>
+      </c>
+      <c r="P77" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>100</v>
+      </c>
+      <c r="R77" t="s">
+        <v>99</v>
+      </c>
+      <c r="S77" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.053931,47.512085]},"properties":{"id":"BUD10","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near Nyugati pu, Kádár u) moderate busy street with people, traffic, hospital nearby."}},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="85">
+      <c r="A78" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F78" s="8">
+        <v>2</v>
+      </c>
+      <c r="G78" s="8">
+        <v>1</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J78" t="s">
+        <v>92</v>
+      </c>
+      <c r="K78" t="s">
+        <v>93</v>
+      </c>
+      <c r="L78" t="s">
+        <v>94</v>
+      </c>
+      <c r="M78" t="s">
+        <v>95</v>
+      </c>
+      <c r="N78" t="s">
+        <v>96</v>
+      </c>
+      <c r="O78" t="s">
+        <v>97</v>
+      </c>
+      <c r="P78" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>100</v>
+      </c>
+      <c r="R78" t="s">
+        <v>99</v>
+      </c>
+      <c r="S78" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.037154,47.514736]},"properties":{"id":"BUD11","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Margit krt) busy road with with people, traffic, hospital nearby,"}},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="109">
+      <c r="A79" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F79" s="8">
+        <v>2</v>
+      </c>
+      <c r="G79" s="8">
+        <v>1</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J79" t="s">
+        <v>92</v>
+      </c>
+      <c r="K79" t="s">
+        <v>93</v>
+      </c>
+      <c r="L79" t="s">
+        <v>94</v>
+      </c>
+      <c r="M79" t="s">
+        <v>95</v>
+      </c>
+      <c r="N79" t="s">
+        <v>96</v>
+      </c>
+      <c r="O79" t="s">
+        <v>97</v>
+      </c>
+      <c r="P79" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>100</v>
+      </c>
+      <c r="R79" t="s">
+        <v>99</v>
+      </c>
+      <c r="S79" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.027087,47.507904]},"properties":{"id":"BUD12","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Széna tér) Busy intersection, bus station, with people, traffic, many office buildings, mall."}},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="73">
+      <c r="A80" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G80" s="8">
+        <v>1</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J80" t="s">
+        <v>92</v>
+      </c>
+      <c r="K80" t="s">
+        <v>93</v>
+      </c>
+      <c r="L80" t="s">
+        <v>94</v>
+      </c>
+      <c r="M80" t="s">
+        <v>95</v>
+      </c>
+      <c r="N80" t="s">
+        <v>96</v>
+      </c>
+      <c r="O80" t="s">
+        <v>97</v>
+      </c>
+      <c r="P80" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>100</v>
+      </c>
+      <c r="R80" t="s">
+        <v>99</v>
+      </c>
+      <c r="S80" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.023974,47.508516]},"properties":{"id":"BUD13","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Széna tér) moderate busy street with people, traffic, mall nearby. "}},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="121">
+      <c r="A81" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G81" s="8">
+        <v>1</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J81" t="s">
+        <v>92</v>
+      </c>
+      <c r="K81" t="s">
+        <v>93</v>
+      </c>
+      <c r="L81" t="s">
+        <v>94</v>
+      </c>
+      <c r="M81" t="s">
+        <v>95</v>
+      </c>
+      <c r="N81" t="s">
+        <v>96</v>
+      </c>
+      <c r="O81" t="s">
+        <v>97</v>
+      </c>
+      <c r="P81" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>100</v>
+      </c>
+      <c r="R81" t="s">
+        <v>99</v>
+      </c>
+      <c r="S81" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.024256,47.501953]},"properties":{"id":"BUD14","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Déli pu) Busy intersection, bus station, with people, traffic, many office buildings, schools and a big park."}},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="133">
+      <c r="A82" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G82" s="8">
+        <v>1</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J82" t="s">
+        <v>92</v>
+      </c>
+      <c r="K82" t="s">
+        <v>93</v>
+      </c>
+      <c r="L82" t="s">
+        <v>94</v>
+      </c>
+      <c r="M82" t="s">
+        <v>95</v>
+      </c>
+      <c r="N82" t="s">
+        <v>96</v>
+      </c>
+      <c r="O82" t="s">
+        <v>97</v>
+      </c>
+      <c r="P82" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>100</v>
+      </c>
+      <c r="R82" t="s">
+        <v>99</v>
+      </c>
+      <c r="S82" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.021809,47.502454]},"properties":{"id":"BUD15","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Déli pu, Városmajor u.) moderate busy street with people, traffic, many office buildings, schools and a hospital nearby."}},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="97">
+      <c r="A83" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F83" s="8">
+        <v>2</v>
+      </c>
+      <c r="G83" s="8">
+        <v>0</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J83" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83" t="s">
+        <v>93</v>
+      </c>
+      <c r="L83" t="s">
+        <v>94</v>
+      </c>
+      <c r="M83" t="s">
+        <v>95</v>
+      </c>
+      <c r="N83" t="s">
+        <v>96</v>
+      </c>
+      <c r="O83" t="s">
+        <v>97</v>
+      </c>
+      <c r="P83" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>100</v>
+      </c>
+      <c r="R83" t="s">
+        <v>99</v>
+      </c>
+      <c r="S83" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.078942,47.496672]},"properties":{"id":"BUD16","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":0,"info":"(II.János Pál pápa tér), green park surrounded by residential buildings and moderate traffic."}},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="145">
+      <c r="A84" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F84" s="8">
+        <v>2</v>
+      </c>
+      <c r="G84" s="8">
+        <v>1</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J84" t="s">
+        <v>92</v>
+      </c>
+      <c r="K84" t="s">
+        <v>93</v>
+      </c>
+      <c r="L84" t="s">
+        <v>94</v>
+      </c>
+      <c r="M84" t="s">
+        <v>95</v>
+      </c>
+      <c r="N84" t="s">
+        <v>96</v>
+      </c>
+      <c r="O84" t="s">
+        <v>97</v>
+      </c>
+      <c r="P84" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>100</v>
+      </c>
+      <c r="R84" t="s">
+        <v>99</v>
+      </c>
+      <c r="S84" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.041137,47.540964]},"properties":{"id":"BUD17","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Flórián tér) Busy intersection, bus, tram station, with people, traffic, many resitential buildings, hospital, shopping mall, schools."}},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="121">
+      <c r="A85" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F85" s="8">
+        <v>2</v>
+      </c>
+      <c r="G85" s="8">
+        <v>1</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J85" t="s">
+        <v>92</v>
+      </c>
+      <c r="K85" t="s">
+        <v>93</v>
+      </c>
+      <c r="L85" t="s">
+        <v>94</v>
+      </c>
+      <c r="M85" t="s">
+        <v>95</v>
+      </c>
+      <c r="N85" t="s">
+        <v>96</v>
+      </c>
+      <c r="O85" t="s">
+        <v>97</v>
+      </c>
+      <c r="P85" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>100</v>
+      </c>
+      <c r="R85" t="s">
+        <v>99</v>
+      </c>
+      <c r="S85" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.038189,47.543455]},"properties":{"id":"BUD18","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(nearFlórián tér, Kórház u.) moderate busy street with many residential building blocks, shops, people, hospital."}},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="193">
+      <c r="A86" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F86" s="8">
+        <v>2</v>
+      </c>
+      <c r="G86" s="8">
+        <v>1</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J86" t="s">
+        <v>92</v>
+      </c>
+      <c r="K86" t="s">
+        <v>93</v>
+      </c>
+      <c r="L86" t="s">
+        <v>94</v>
+      </c>
+      <c r="M86" t="s">
+        <v>95</v>
+      </c>
+      <c r="N86" t="s">
+        <v>96</v>
+      </c>
+      <c r="O86" t="s">
+        <v>97</v>
+      </c>
+      <c r="P86" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>100</v>
+      </c>
+      <c r="R86" t="s">
+        <v>99</v>
+      </c>
+      <c r="S86" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.088348,47.518866]},"properties":{"id":"BUD19","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kacsóh Pongrác úti megálló) Busy intersection, entry to highway, bus, tram station, with people, traffic, many resitential buildings,  hospital, close to UNESCO city park and bath."}},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="145">
+      <c r="A87" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F87" s="8">
+        <v>2</v>
+      </c>
+      <c r="G87" s="8">
+        <v>1</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J87" t="s">
+        <v>92</v>
+      </c>
+      <c r="K87" t="s">
+        <v>93</v>
+      </c>
+      <c r="L87" t="s">
+        <v>94</v>
+      </c>
+      <c r="M87" t="s">
+        <v>95</v>
+      </c>
+      <c r="N87" t="s">
+        <v>96</v>
+      </c>
+      <c r="O87" t="s">
+        <v>97</v>
+      </c>
+      <c r="P87" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>100</v>
+      </c>
+      <c r="R87" t="s">
+        <v>99</v>
+      </c>
+      <c r="S87" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.086176,47.518239]},"properties":{"id":"BUD20","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near to Kacsóh Pongrác), busy road with public transport, traffic, people,beside the UNESCO city park, residential buildings."}},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="121">
+      <c r="A88" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" s="8">
+        <v>1</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J88" t="s">
+        <v>92</v>
+      </c>
+      <c r="K88" t="s">
+        <v>93</v>
+      </c>
+      <c r="L88" t="s">
+        <v>94</v>
+      </c>
+      <c r="M88" t="s">
+        <v>95</v>
+      </c>
+      <c r="N88" t="s">
+        <v>96</v>
+      </c>
+      <c r="O88" t="s">
+        <v>97</v>
+      </c>
+      <c r="P88" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>100</v>
+      </c>
+      <c r="R88" t="s">
+        <v>99</v>
+      </c>
+      <c r="S88" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.090144,47.560772]},"properties":{"id":"BUD21","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Újpest-Városközpont) busy intersection with public transport,traffic, people,residential building blocks, shops."}},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="109">
+      <c r="A89" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F89" s="8">
+        <v>2</v>
+      </c>
+      <c r="G89" s="8">
+        <v>1</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J89" t="s">
+        <v>92</v>
+      </c>
+      <c r="K89" t="s">
+        <v>93</v>
+      </c>
+      <c r="L89" t="s">
+        <v>94</v>
+      </c>
+      <c r="M89" t="s">
+        <v>95</v>
+      </c>
+      <c r="N89" t="s">
+        <v>96</v>
+      </c>
+      <c r="O89" t="s">
+        <v>97</v>
+      </c>
+      <c r="P89" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>100</v>
+      </c>
+      <c r="R89" t="s">
+        <v>99</v>
+      </c>
+      <c r="S89" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.088294,47.561605]},"properties":{"id":"BUD22","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Újpest-Városközpont) moderate busy street with a park, residential buildings, mall, shops, traffic."}},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="97">
+      <c r="A90" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F90" s="8">
+        <v>2</v>
+      </c>
+      <c r="G90" s="8">
+        <v>1</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J90" t="s">
+        <v>92</v>
+      </c>
+      <c r="K90" t="s">
+        <v>93</v>
+      </c>
+      <c r="L90" t="s">
+        <v>94</v>
+      </c>
+      <c r="M90" t="s">
+        <v>95</v>
+      </c>
+      <c r="N90" t="s">
+        <v>96</v>
+      </c>
+      <c r="O90" t="s">
+        <v>97</v>
+      </c>
+      <c r="P90" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>100</v>
+      </c>
+      <c r="R90" t="s">
+        <v>99</v>
+      </c>
+      <c r="S90" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.089486,47.478829]},"properties":{"id":"BUD23","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Nagyvárad tér) busy intersection with traffic, people, school,hospitals, close to green park."}},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" t="s">
+        <v>342</v>
+      </c>
+      <c r="B91" t="s">
+        <v>343</v>
+      </c>
+      <c r="C91" t="s">
+        <v>344</v>
+      </c>
+      <c r="D91" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" t="s">
+        <v>228</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>345</v>
+      </c>
+      <c r="I91" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J91" t="s">
+        <v>92</v>
+      </c>
+      <c r="K91" t="s">
+        <v>93</v>
+      </c>
+      <c r="L91" t="s">
+        <v>94</v>
+      </c>
+      <c r="M91" t="s">
+        <v>95</v>
+      </c>
+      <c r="N91" t="s">
+        <v>96</v>
+      </c>
+      <c r="O91" t="s">
+        <v>97</v>
+      </c>
+      <c r="P91" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>100</v>
+      </c>
+      <c r="R91" t="s">
+        <v>99</v>
+      </c>
+      <c r="S91" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.094298,47.480592]},"properties":{"id":"BUD24","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Nagyvárad tér), moderate busy street with traffic,people, residential buildings, schools, hospital, close to green park."}},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" t="s">
+        <v>346</v>
+      </c>
+      <c r="B92" t="s">
+        <v>347</v>
+      </c>
+      <c r="C92" t="s">
+        <v>348</v>
+      </c>
+      <c r="D92" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" t="s">
+        <v>228</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>349</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J92" t="s">
+        <v>92</v>
+      </c>
+      <c r="K92" t="s">
+        <v>93</v>
+      </c>
+      <c r="L92" t="s">
+        <v>94</v>
+      </c>
+      <c r="M92" t="s">
+        <v>95</v>
+      </c>
+      <c r="N92" t="s">
+        <v>96</v>
+      </c>
+      <c r="O92" t="s">
+        <v>97</v>
+      </c>
+      <c r="P92" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>100</v>
+      </c>
+      <c r="R92" t="s">
+        <v>99</v>
+      </c>
+      <c r="S92" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.094559,47.521894]},"properties":{"id":"BUD25","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to highway M3 and city park). moderate busy street with people. residential building blocks. traffic."}},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" t="s">
+        <v>350</v>
+      </c>
+      <c r="B93" t="s">
+        <v>351</v>
+      </c>
+      <c r="C93" t="s">
+        <v>352</v>
+      </c>
+      <c r="D93" t="s">
+        <v>227</v>
+      </c>
+      <c r="E93" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>353</v>
+      </c>
+      <c r="I93" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J93" t="s">
+        <v>92</v>
+      </c>
+      <c r="K93" t="s">
+        <v>93</v>
+      </c>
+      <c r="L93" t="s">
+        <v>94</v>
+      </c>
+      <c r="M93" t="s">
+        <v>95</v>
+      </c>
+      <c r="N93" t="s">
+        <v>96</v>
+      </c>
+      <c r="O93" t="s">
+        <v>97</v>
+      </c>
+      <c r="P93" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>100</v>
+      </c>
+      <c r="R93" t="s">
+        <v>99</v>
+      </c>
+      <c r="S93" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.016553,47.466128]},"properties":{"id":"BUD26","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Budaörsi út. near Kelenföld pu) busy road with people. traffic. train and bus station close. residential buildings and offices."}},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" t="s">
+        <v>354</v>
+      </c>
+      <c r="B94" t="s">
+        <v>355</v>
+      </c>
+      <c r="C94" t="s">
+        <v>356</v>
+      </c>
+      <c r="D94" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" t="s">
+        <v>228</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>357</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J94" t="s">
+        <v>92</v>
+      </c>
+      <c r="K94" t="s">
+        <v>93</v>
+      </c>
+      <c r="L94" t="s">
+        <v>94</v>
+      </c>
+      <c r="M94" t="s">
+        <v>95</v>
+      </c>
+      <c r="N94" t="s">
+        <v>96</v>
+      </c>
+      <c r="O94" t="s">
+        <v>97</v>
+      </c>
+      <c r="P94" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>100</v>
+      </c>
+      <c r="R94" t="s">
+        <v>99</v>
+      </c>
+      <c r="S94" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.019297,47.467142]},"properties":{"id":"BUD27","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Budaörsi út). moderate busy street with people. traffic. residential buildings."}},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" t="s">
+        <v>358</v>
+      </c>
+      <c r="B95" t="s">
+        <v>359</v>
+      </c>
+      <c r="C95" t="s">
+        <v>360</v>
+      </c>
+      <c r="D95" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" t="s">
+        <v>228</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>361</v>
+      </c>
+      <c r="I95" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J95" t="s">
+        <v>92</v>
+      </c>
+      <c r="K95" t="s">
+        <v>93</v>
+      </c>
+      <c r="L95" t="s">
+        <v>94</v>
+      </c>
+      <c r="M95" t="s">
+        <v>95</v>
+      </c>
+      <c r="N95" t="s">
+        <v>96</v>
+      </c>
+      <c r="O95" t="s">
+        <v>97</v>
+      </c>
+      <c r="P95" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>100</v>
+      </c>
+      <c r="R95" t="s">
+        <v>99</v>
+      </c>
+      <c r="S95" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.136842,47.503904]},"properties":{"id":"BUD28","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Örs vezér tér) busy intersection with people. traffic. every kind of public transport. shopping mall. close to hospital."}},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" t="s">
+        <v>362</v>
+      </c>
+      <c r="B96" t="s">
+        <v>363</v>
+      </c>
+      <c r="C96" t="s">
+        <v>364</v>
+      </c>
+      <c r="D96" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" t="s">
+        <v>228</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>365</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J96" t="s">
+        <v>92</v>
+      </c>
+      <c r="K96" t="s">
+        <v>93</v>
+      </c>
+      <c r="L96" t="s">
+        <v>94</v>
+      </c>
+      <c r="M96" t="s">
+        <v>95</v>
+      </c>
+      <c r="N96" t="s">
+        <v>96</v>
+      </c>
+      <c r="O96" t="s">
+        <v>97</v>
+      </c>
+      <c r="P96" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>100</v>
+      </c>
+      <c r="R96" t="s">
+        <v>99</v>
+      </c>
+      <c r="S96" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.133894,47.505597]},"properties":{"id":"BUD29","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Örs vezér tér).moderate busy street with people. traffic. hospital."}},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="16" thickBot="1">
+      <c r="A97" t="s">
+        <v>366</v>
+      </c>
+      <c r="B97" t="s">
+        <v>367</v>
+      </c>
+      <c r="C97" t="s">
+        <v>368</v>
+      </c>
+      <c r="D97" t="s">
+        <v>227</v>
+      </c>
+      <c r="E97" t="s">
+        <v>228</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>369</v>
+      </c>
+      <c r="H97" t="s">
+        <v>370</v>
+      </c>
+      <c r="I97" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="J97" t="s">
+        <v>92</v>
+      </c>
+      <c r="K97" t="s">
+        <v>93</v>
+      </c>
+      <c r="L97" t="s">
+        <v>94</v>
+      </c>
+      <c r="M97" t="s">
+        <v>95</v>
+      </c>
+      <c r="N97" t="s">
+        <v>96</v>
+      </c>
+      <c r="O97" t="s">
+        <v>97</v>
+      </c>
+      <c r="P97" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>100</v>
+      </c>
+      <c r="R97" t="s">
+        <v>99</v>
+      </c>
+      <c r="S97" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.100679,47.476853]},"properties":{"id":"BUD30","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":0/1,"info":"(Népliget). moderate or no traffic. green park. people. close to bus station and busy road."}},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="86" thickBot="1">
+      <c r="A98" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="D98" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F98" s="13">
+        <v>3</v>
+      </c>
+      <c r="G98" s="13">
+        <v>1</v>
+      </c>
+      <c r="H98" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="I98" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J98" t="s">
+        <v>92</v>
+      </c>
+      <c r="K98" t="s">
+        <v>93</v>
+      </c>
+      <c r="L98" t="s">
+        <v>94</v>
+      </c>
+      <c r="M98" t="s">
+        <v>95</v>
+      </c>
+      <c r="N98" t="s">
+        <v>96</v>
+      </c>
+      <c r="O98" t="s">
+        <v>97</v>
+      </c>
+      <c r="P98" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>100</v>
+      </c>
+      <c r="R98" t="s">
+        <v>99</v>
+      </c>
+      <c r="S98" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.546835,53.932023]},"properties":{"id":"MSQ1","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Arlouskaya st., busy intersection with heavy truck traffic, pedestrians, bikeroads"}},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="98" thickBot="1">
+      <c r="A99" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F99" s="13">
+        <v>2</v>
+      </c>
+      <c r="G99" s="13">
+        <v>1</v>
+      </c>
+      <c r="H99" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="I99" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J99" t="s">
+        <v>92</v>
+      </c>
+      <c r="K99" t="s">
+        <v>93</v>
+      </c>
+      <c r="L99" t="s">
+        <v>94</v>
+      </c>
+      <c r="M99" t="s">
+        <v>95</v>
+      </c>
+      <c r="N99" t="s">
+        <v>96</v>
+      </c>
+      <c r="O99" t="s">
+        <v>97</v>
+      </c>
+      <c r="P99" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>100</v>
+      </c>
+      <c r="R99" t="s">
+        <v>99</v>
+      </c>
+      <c r="S99" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.671079,53.945368]},"properties":{"id":"MSQ2","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Uručča, residential area with open access to the heavily loaded outer city ring"}},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="74" thickBot="1">
+      <c r="A100" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="D100" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F100" s="13">
+        <v>2</v>
+      </c>
+      <c r="G100" s="13">
+        <v>1</v>
+      </c>
+      <c r="H100" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="I100" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J100" t="s">
+        <v>92</v>
+      </c>
+      <c r="K100" t="s">
+        <v>93</v>
+      </c>
+      <c r="L100" t="s">
+        <v>94</v>
+      </c>
+      <c r="M100" t="s">
+        <v>95</v>
+      </c>
+      <c r="N100" t="s">
+        <v>96</v>
+      </c>
+      <c r="O100" t="s">
+        <v>97</v>
+      </c>
+      <c r="P100" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>100</v>
+      </c>
+      <c r="R100" t="s">
+        <v>99</v>
+      </c>
+      <c r="S100" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.608928,53.923499]},"properties":{"id":"MSQ3","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Independence ave/Kalinina sq., city center, heavy traffic"}},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="62" thickBot="1">
+      <c r="A101" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F101" s="13">
+        <v>3</v>
+      </c>
+      <c r="G101" s="13">
+        <v>1</v>
+      </c>
+      <c r="H101" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="I101" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J101" t="s">
+        <v>92</v>
+      </c>
+      <c r="K101" t="s">
+        <v>93</v>
+      </c>
+      <c r="L101" t="s">
+        <v>94</v>
+      </c>
+      <c r="M101" t="s">
+        <v>95</v>
+      </c>
+      <c r="N101" t="s">
+        <v>96</v>
+      </c>
+      <c r="O101" t="s">
+        <v>97</v>
+      </c>
+      <c r="P101" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>100</v>
+      </c>
+      <c r="R101" t="s">
+        <v>99</v>
+      </c>
+      <c r="S101" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.587808,53.920724]},"properties":{"id":"MSQ4","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Kolasa st., Technical university campus, heavy traffic"}},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="74" thickBot="1">
+      <c r="A102" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F102" s="13">
+        <v>2</v>
+      </c>
+      <c r="G102" s="13">
+        <v>1</v>
+      </c>
+      <c r="H102" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="I102" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J102" t="s">
+        <v>92</v>
+      </c>
+      <c r="K102" t="s">
+        <v>93</v>
+      </c>
+      <c r="L102" t="s">
+        <v>94</v>
+      </c>
+      <c r="M102" t="s">
+        <v>95</v>
+      </c>
+      <c r="N102" t="s">
+        <v>96</v>
+      </c>
+      <c r="O102" t="s">
+        <v>97</v>
+      </c>
+      <c r="P102" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>100</v>
+      </c>
+      <c r="R102" t="s">
+        <v>99</v>
+      </c>
+      <c r="S102" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.580108,53.887069]},"properties":{"id":"MSQ5","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Partizansky ave, traffic interchange, heavy traffic, railway nearby"}},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="50" thickBot="1">
+      <c r="A103" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C103" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F103" s="13">
+        <v>3</v>
+      </c>
+      <c r="G103" s="13">
+        <v>1</v>
+      </c>
+      <c r="H103" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="I103" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J103" t="s">
+        <v>92</v>
+      </c>
+      <c r="K103" t="s">
+        <v>93</v>
+      </c>
+      <c r="L103" t="s">
+        <v>94</v>
+      </c>
+      <c r="M103" t="s">
+        <v>95</v>
+      </c>
+      <c r="N103" t="s">
+        <v>96</v>
+      </c>
+      <c r="O103" t="s">
+        <v>97</v>
+      </c>
+      <c r="P103" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>100</v>
+      </c>
+      <c r="R103" t="s">
+        <v>99</v>
+      </c>
+      <c r="S103" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.609916,53.878242]},"properties":{"id":"MSQ6","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Vaneeva st., traffic circle, lots of pedestrians"}},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="50" thickBot="1">
+      <c r="A104" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F104" s="13">
+        <v>3</v>
+      </c>
+      <c r="G104" s="13">
+        <v>1</v>
+      </c>
+      <c r="H104" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="I104" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J104" t="s">
+        <v>92</v>
+      </c>
+      <c r="K104" t="s">
+        <v>93</v>
+      </c>
+      <c r="L104" t="s">
+        <v>94</v>
+      </c>
+      <c r="M104" t="s">
+        <v>95</v>
+      </c>
+      <c r="N104" t="s">
+        <v>96</v>
+      </c>
+      <c r="O104" t="s">
+        <v>97</v>
+      </c>
+      <c r="P104" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>100</v>
+      </c>
+      <c r="R104" t="s">
+        <v>99</v>
+      </c>
+      <c r="S104" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.568392,53.875016]},"properties":{"id":"MSQ7","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Mayakovskogo st., heavy traffic, pedestrians"}},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="74" thickBot="1">
+      <c r="A105" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>398</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F105" s="13">
+        <v>2</v>
+      </c>
+      <c r="G105" s="13">
+        <v>1</v>
+      </c>
+      <c r="H105" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="I105" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J105" t="s">
+        <v>92</v>
+      </c>
+      <c r="K105" t="s">
+        <v>93</v>
+      </c>
+      <c r="L105" t="s">
+        <v>94</v>
+      </c>
+      <c r="M105" t="s">
+        <v>95</v>
+      </c>
+      <c r="N105" t="s">
+        <v>96</v>
+      </c>
+      <c r="O105" t="s">
+        <v>97</v>
+      </c>
+      <c r="P105" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>100</v>
+      </c>
+      <c r="R105" t="s">
+        <v>99</v>
+      </c>
+      <c r="S105" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.606739,53.862187]},"properties":{"id":"MSQ8","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Plehanova st., main crossroads in large residential district"}},</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="38" thickBot="1">
+      <c r="A106" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="D106" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F106" s="13">
+        <v>3</v>
+      </c>
+      <c r="G106" s="13">
+        <v>1</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="I106" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J106" t="s">
+        <v>92</v>
+      </c>
+      <c r="K106" t="s">
+        <v>93</v>
+      </c>
+      <c r="L106" t="s">
+        <v>94</v>
+      </c>
+      <c r="M106" t="s">
+        <v>95</v>
+      </c>
+      <c r="N106" t="s">
+        <v>96</v>
+      </c>
+      <c r="O106" t="s">
+        <v>97</v>
+      </c>
+      <c r="P106" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>100</v>
+      </c>
+      <c r="R106" t="s">
+        <v>99</v>
+      </c>
+      <c r="S106" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.639528,53.892688]},"properties":{"id":"MSQ9","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Vaupshasov st., heavy transit traffic"}},</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="86" thickBot="1">
+      <c r="A107" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D107" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" s="13">
+        <v>2</v>
+      </c>
+      <c r="G107" s="13">
+        <v>1</v>
+      </c>
+      <c r="H107" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="I107" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J107" t="s">
+        <v>92</v>
+      </c>
+      <c r="K107" t="s">
+        <v>93</v>
+      </c>
+      <c r="L107" t="s">
+        <v>94</v>
+      </c>
+      <c r="M107" t="s">
+        <v>95</v>
+      </c>
+      <c r="N107" t="s">
+        <v>96</v>
+      </c>
+      <c r="O107" t="s">
+        <v>97</v>
+      </c>
+      <c r="P107" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>100</v>
+      </c>
+      <c r="R107" t="s">
+        <v>99</v>
+      </c>
+      <c r="S107" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.655988,53.879158]},"properties":{"id":"MSQ10","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Radialnaya, heavy traffic, highly polluted industrial area (tractor works)"}},</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="50" thickBot="1">
+      <c r="A108" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="D108" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F108" s="13">
+        <v>2</v>
+      </c>
+      <c r="G108" s="13">
+        <v>1</v>
+      </c>
+      <c r="H108" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="I108" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J108" t="s">
+        <v>92</v>
+      </c>
+      <c r="K108" t="s">
+        <v>93</v>
+      </c>
+      <c r="L108" t="s">
+        <v>94</v>
+      </c>
+      <c r="M108" t="s">
+        <v>95</v>
+      </c>
+      <c r="N108" t="s">
+        <v>96</v>
+      </c>
+      <c r="O108" t="s">
+        <v>97</v>
+      </c>
+      <c r="P108" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>100</v>
+      </c>
+      <c r="R108" t="s">
+        <v>99</v>
+      </c>
+      <c r="S108" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.53292,53.839494]},"properties":{"id":"MSQ11","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Kizhevatova st., heavy traffic, city entrance"}},</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="38" thickBot="1">
+      <c r="A109" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F109" s="13">
+        <v>2</v>
+      </c>
+      <c r="G109" s="13">
+        <v>1</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="I109" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J109" t="s">
+        <v>92</v>
+      </c>
+      <c r="K109" t="s">
+        <v>93</v>
+      </c>
+      <c r="L109" t="s">
+        <v>94</v>
+      </c>
+      <c r="M109" t="s">
+        <v>95</v>
+      </c>
+      <c r="N109" t="s">
+        <v>96</v>
+      </c>
+      <c r="O109" t="s">
+        <v>97</v>
+      </c>
+      <c r="P109" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>100</v>
+      </c>
+      <c r="R109" t="s">
+        <v>99</v>
+      </c>
+      <c r="S109" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.538454,53.895705]},"properties":{"id":"MSQ12","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Zetkin st., local traffic interchange"}},</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="50" thickBot="1">
+      <c r="A110" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E110" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F110" s="13">
+        <v>3</v>
+      </c>
+      <c r="G110" s="13">
+        <v>1</v>
+      </c>
+      <c r="H110" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="I110" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J110" t="s">
+        <v>92</v>
+      </c>
+      <c r="K110" t="s">
+        <v>93</v>
+      </c>
+      <c r="L110" t="s">
+        <v>94</v>
+      </c>
+      <c r="M110" t="s">
+        <v>95</v>
+      </c>
+      <c r="N110" t="s">
+        <v>96</v>
+      </c>
+      <c r="O110" t="s">
+        <v>97</v>
+      </c>
+      <c r="P110" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>100</v>
+      </c>
+      <c r="R110" t="s">
+        <v>99</v>
+      </c>
+      <c r="S110" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.497873,53.909921]},"properties":{"id":"MSQ13","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Pushkin ave, 2nd city ring, heavy loaded"}},</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="62" thickBot="1">
+      <c r="A111" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F111" s="13">
+        <v>2</v>
+      </c>
+      <c r="G111" s="13">
+        <v>1</v>
+      </c>
+      <c r="H111" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="I111" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J111" t="s">
+        <v>92</v>
+      </c>
+      <c r="K111" t="s">
+        <v>93</v>
+      </c>
+      <c r="L111" t="s">
+        <v>94</v>
+      </c>
+      <c r="M111" t="s">
+        <v>95</v>
+      </c>
+      <c r="N111" t="s">
+        <v>96</v>
+      </c>
+      <c r="O111" t="s">
+        <v>97</v>
+      </c>
+      <c r="P111" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>100</v>
+      </c>
+      <c r="R111" t="s">
+        <v>99</v>
+      </c>
+      <c r="S111" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.41299,53.916667]},"properties":{"id":"MSQ14","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Outer city ring near large residential area"}},</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="98" thickBot="1">
+      <c r="A112" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F112" s="13">
+        <v>3</v>
+      </c>
+      <c r="G112" s="13">
+        <v>1</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="I112" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J112" t="s">
+        <v>92</v>
+      </c>
+      <c r="K112" t="s">
+        <v>93</v>
+      </c>
+      <c r="L112" t="s">
+        <v>94</v>
+      </c>
+      <c r="M112" t="s">
+        <v>95</v>
+      </c>
+      <c r="N112" t="s">
+        <v>96</v>
+      </c>
+      <c r="O112" t="s">
+        <v>97</v>
+      </c>
+      <c r="P112" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>100</v>
+      </c>
+      <c r="R112" t="s">
+        <v>99</v>
+      </c>
+      <c r="S112" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.523712,53.913358]},"properties":{"id":"MSQ15","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Timiryazev st., heavy traffic, next to the reference station of BelHydroMet"}},</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="98" thickBot="1">
+      <c r="A113" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F113" s="13">
+        <v>2</v>
+      </c>
+      <c r="G113" s="13">
+        <v>1</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="I113" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J113" t="s">
+        <v>92</v>
+      </c>
+      <c r="K113" t="s">
+        <v>93</v>
+      </c>
+      <c r="L113" t="s">
+        <v>94</v>
+      </c>
+      <c r="M113" t="s">
+        <v>95</v>
+      </c>
+      <c r="N113" t="s">
+        <v>96</v>
+      </c>
+      <c r="O113" t="s">
+        <v>97</v>
+      </c>
+      <c r="P113" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>100</v>
+      </c>
+      <c r="R113" t="s">
+        <v>99</v>
+      </c>
+      <c r="S113" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.71229,53.947473]},"properties":{"id":"MSQ16","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Uručča, residential area, next to the reference station of BelHydroMet"}},</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="38" thickBot="1">
+      <c r="A114" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F114" s="13">
+        <v>2</v>
+      </c>
+      <c r="G114" s="13">
+        <v>1</v>
+      </c>
+      <c r="H114" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="I114" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J114" t="s">
+        <v>92</v>
+      </c>
+      <c r="K114" t="s">
+        <v>93</v>
+      </c>
+      <c r="L114" t="s">
+        <v>94</v>
+      </c>
+      <c r="M114" t="s">
+        <v>95</v>
+      </c>
+      <c r="N114" t="s">
+        <v>96</v>
+      </c>
+      <c r="O114" t="s">
+        <v>97</v>
+      </c>
+      <c r="P114" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>100</v>
+      </c>
+      <c r="R114" t="s">
+        <v>99</v>
+      </c>
+      <c r="S114" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.615162,53.913675]},"properties":{"id":"MSQ17","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"City center, local traffic interchange"}},</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="50" thickBot="1">
+      <c r="A115" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>438</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F115" s="13">
+        <v>1</v>
+      </c>
+      <c r="G115" s="13">
+        <v>0</v>
+      </c>
+      <c r="H115" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="I115" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J115" t="s">
+        <v>92</v>
+      </c>
+      <c r="K115" t="s">
+        <v>93</v>
+      </c>
+      <c r="L115" t="s">
+        <v>94</v>
+      </c>
+      <c r="M115" t="s">
+        <v>95</v>
+      </c>
+      <c r="N115" t="s">
+        <v>96</v>
+      </c>
+      <c r="O115" t="s">
+        <v>97</v>
+      </c>
+      <c r="P115" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>100</v>
+      </c>
+      <c r="R115" t="s">
+        <v>99</v>
+      </c>
+      <c r="S115" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.575205,53.941037]},"properties":{"id":"MSQ18","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":1,"trafic":0,"info":"Mozhaisky st., calm residential area"}},</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="26" thickBot="1">
+      <c r="A116" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F116" s="13">
+        <v>3</v>
+      </c>
+      <c r="G116" s="13">
+        <v>1</v>
+      </c>
+      <c r="H116" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="I116" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J116" t="s">
+        <v>92</v>
+      </c>
+      <c r="K116" t="s">
+        <v>93</v>
+      </c>
+      <c r="L116" t="s">
+        <v>94</v>
+      </c>
+      <c r="M116" t="s">
+        <v>95</v>
+      </c>
+      <c r="N116" t="s">
+        <v>96</v>
+      </c>
+      <c r="O116" t="s">
+        <v>97</v>
+      </c>
+      <c r="P116" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>100</v>
+      </c>
+      <c r="R116" t="s">
+        <v>99</v>
+      </c>
+      <c r="S116" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.530621,53.969048]},"properties":{"id":"MSQ19","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Outer city ring"}},</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="38" thickBot="1">
+      <c r="A117" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F117" s="13">
+        <v>2</v>
+      </c>
+      <c r="G117" s="13">
+        <v>0</v>
+      </c>
+      <c r="H117" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="I117" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J117" t="s">
+        <v>92</v>
+      </c>
+      <c r="K117" t="s">
+        <v>93</v>
+      </c>
+      <c r="L117" t="s">
+        <v>94</v>
+      </c>
+      <c r="M117" t="s">
+        <v>95</v>
+      </c>
+      <c r="N117" t="s">
+        <v>96</v>
+      </c>
+      <c r="O117" t="s">
+        <v>97</v>
+      </c>
+      <c r="P117" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>100</v>
+      </c>
+      <c r="R117" t="s">
+        <v>99</v>
+      </c>
+      <c r="S117" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.615162,53.913675]},"properties":{"id":"MSQ20","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":0,"info":"Center of city Botanic garden"}},</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="74" thickBot="1">
+      <c r="A118" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="F118" s="13">
+        <v>3</v>
+      </c>
+      <c r="G118" s="13">
+        <v>1</v>
+      </c>
+      <c r="H118" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="I118" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="J118" t="s">
+        <v>92</v>
+      </c>
+      <c r="K118" t="s">
+        <v>93</v>
+      </c>
+      <c r="L118" t="s">
+        <v>94</v>
+      </c>
+      <c r="M118" t="s">
+        <v>95</v>
+      </c>
+      <c r="N118" t="s">
+        <v>96</v>
+      </c>
+      <c r="O118" t="s">
+        <v>97</v>
+      </c>
+      <c r="P118" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>100</v>
+      </c>
+      <c r="R118" t="s">
+        <v>99</v>
+      </c>
+      <c r="S118" t="str">
+        <f t="shared" si="1"/>
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.576477,53.907919]},"properties":{"id":"MSQ21","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Victory sq., traffic circle, heavy traffic, lots of pedestrians, bikeroad"}},</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E67" r:id="rId1"/>
+    <hyperlink ref="E98" r:id="rId2"/>
+    <hyperlink ref="E99" r:id="rId3"/>
+    <hyperlink ref="E100" r:id="rId4"/>
+    <hyperlink ref="E101" r:id="rId5"/>
+    <hyperlink ref="E102" r:id="rId6"/>
+    <hyperlink ref="E103" r:id="rId7"/>
+    <hyperlink ref="E104" r:id="rId8"/>
+    <hyperlink ref="E105" r:id="rId9"/>
+    <hyperlink ref="E106" r:id="rId10"/>
+    <hyperlink ref="E107" r:id="rId11"/>
+    <hyperlink ref="E108" r:id="rId12"/>
+    <hyperlink ref="E109" r:id="rId13"/>
+    <hyperlink ref="E110" r:id="rId14"/>
+    <hyperlink ref="E111" r:id="rId15"/>
+    <hyperlink ref="E112" r:id="rId16"/>
+    <hyperlink ref="E113" r:id="rId17"/>
+    <hyperlink ref="E114" r:id="rId18"/>
+    <hyperlink ref="E115" r:id="rId19"/>
+    <hyperlink ref="E116" r:id="rId20"/>
+    <hyperlink ref="E117" r:id="rId21"/>
+    <hyperlink ref="E118" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/doc/Workbook1.xlsx
+++ b/doc/Workbook1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1893" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="450">
   <si>
     <t>senzorvzduchu.cz</t>
   </si>
@@ -1475,7 +1475,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1488,6 +1488,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1543,7 +1544,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1557,6 +1558,7 @@
     <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1894,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H90" workbookViewId="0">
-      <selection activeCell="S98" sqref="S98:S118"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1903,7 +1905,7 @@
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16" thickBot="1">
+    <row r="1" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="86" thickBot="1">
+    <row r="2" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +1994,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4301362,50.0756786]},"properties":{"id":"PRG1","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy intersection with people, traffic, schools and hospital nearby."}},</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="182" thickBot="1">
+    <row r="3" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -2052,7 +2054,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4306759,50.0723734]},"properties":{"id":"PRG2","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Traffic sensor, but also a refence point to CHMIs http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ALEG_CZ.html"}},</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="38" thickBot="1">
+    <row r="4" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.434207,50.0737929]},"properties":{"id":"PRG3","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":0,"info":"Residential area with school."}},</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="182" thickBot="1">
+    <row r="5" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4427897,50.081394]},"properties":{"id":"PRG4","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":0,"info":"Reference measurement to CHMI AIM station in park Riegrovy sady: http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ARIE_CZ.html"}},</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="62" thickBot="1">
+    <row r="6" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4379673,50.0910011]},"properties":{"id":"PRG5","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy intersection, under overpass, bus station."}},</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="98" thickBot="1">
+    <row r="7" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.414311,50.0860711]},"properties":{"id":"PRG6","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Transit through UNESCO World Heritage site 21000 cars/working day."}},</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="62" thickBot="1">
+    <row r="8" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2352,7 +2354,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4085724,50.0724672]},"properties":{"id":"PRG7","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy intersection with people and traffic, riverside."}},</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="38" thickBot="1">
+    <row r="9" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
@@ -2412,7 +2414,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4050826,50.0749651]},"properties":{"id":"PRG8","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy road with people and traffic."}},</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="206" thickBot="1">
+    <row r="10" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.3993835,50.0716768]},"properties":{"id":"PRG9","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Traffic from Pilsen x Blanka tunnel. Above the tunnel is also a CHMI AIM http://portal.chmi.cz/files/portal/docs/uoco/web_generator/locality/pollution_locality/loc_ASMI_CZ.html"}},</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="50" thickBot="1">
+    <row r="11" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.3821469,50.0893636]},"properties":{"id":"PRG10","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Residential area, exits from Blanka tunnel."}},</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="74" thickBot="1">
+    <row r="12" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.3964891,50.1002118]},"properties":{"id":"PRG11","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Farmers market, huge roundabout, heavy traffic to airport."}},</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="50" thickBot="1">
+    <row r="13" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -2652,7 +2654,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4442736,50.1147822]},"properties":{"id":"PRG12","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Exit from tunnel Blanka, riverside."}},</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="62" thickBot="1">
+    <row r="14" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4611478,50.1176375]},"properties":{"id":"PRG13","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Residential area on hill with 90.000 cars/working day."}},</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="50" thickBot="1">
+    <row r="15" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -2772,7 +2774,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4434085,50.1032446]},"properties":{"id":"PRG14","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy road, Vltava river level, Billa parking."}},</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="50" thickBot="1">
+    <row r="16" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -2832,7 +2834,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4810011,50.1043091]},"properties":{"id":"PRG15","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy intersection, gas station, overpass."}},</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="62" thickBot="1">
+    <row r="17" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -2892,7 +2894,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4665657,50.0691655]},"properties":{"id":"PRG16","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Road in walley, parking, Ministry of enviroment."}},</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="122" thickBot="1">
+    <row r="18" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4807536,50.0486962]},"properties":{"id":"PRG17","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"120.000 cars/working day with a lot of heavy trucks due to lack of the south - east - north transit ring around Prague."}},</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="26" thickBot="1">
+    <row r="19" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4101525,50.0336998]},"properties":{"id":"PRG18","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Busy bridge intersection."}},</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="38" thickBot="1">
+    <row r="20" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.4094995,50.0609116]},"properties":{"id":"PRG19","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Bus station, heavy traffic nearby."}},</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="38" thickBot="1">
+    <row r="21" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -3132,7 +3134,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[14.3721686,50.0702677]},"properties":{"id":"PRG20","group":"senzorvzduchu.cz","city":"Prague","color":"#00cc99","height":3,"trafic":1,"info":"Main exit to Pilsen, hill, valley."}},</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="110" thickBot="1">
+    <row r="22" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>101</v>
       </c>
@@ -3192,7 +3194,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.049889,48.466098]},"properties":{"id":"DNK1","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"MOST-City\", bus station, entrance to the \"Central bridge\", crowded place"}},</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="86" thickBot="1">
+    <row r="23" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>107</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0460373,48.4642516]},"properties":{"id":"DNK2","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Heroiv Maidanu Square, bus station, pedestrian area, huge traffic"}},</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="98" thickBot="1">
+    <row r="24" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>111</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0653546,48.4663951]},"properties":{"id":"DNK3","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Festival pier, pedestrian area, crowded place, the longest promenade in Ukraine"}},</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="98" thickBot="1">
+    <row r="25" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>115</v>
       </c>
@@ -3372,7 +3374,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0733477,48.4084019]},"properties":{"id":"DNK4","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Cafe \"Fantaziya\", pedestrian area, small green area, housing area, schools"}},</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="86" thickBot="1">
+    <row r="26" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>118</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0629357,48.4243839]},"properties":{"id":"DNK5","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Kosmichnaya Street, roundabout, reference measurement station, huge traffic"}},</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="98" thickBot="1">
+    <row r="27" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>122</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.1318213,48.4039489]},"properties":{"id":"DNK6","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"House of culture \"Energetyk\", reference measurement station, residential area"}},</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="62" thickBot="1">
+    <row r="28" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>125</v>
       </c>
@@ -3552,7 +3554,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9474725,48.4872575]},"properties":{"id":"DNK7","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Novokodatskyi Park, ice arena, no traffic, city hospital"}},</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="122" thickBot="1">
+    <row r="29" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>129</v>
       </c>
@@ -3612,7 +3614,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9778414,48.4761675]},"properties":{"id":"DNK8","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Serhiia Nihoiana Avenue, reference measurement station, governmental building, metallurgical plant"}},</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="110" thickBot="1">
+    <row r="30" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A30" s="6" t="s">
         <v>133</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9899219,48.509473]},"properties":{"id":"DNK9","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Frunzenskyi\", huge traffic, residential area, shopping market"}},</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="98" thickBot="1">
+    <row r="31" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A31" s="6" t="s">
         <v>136</v>
       </c>
@@ -3732,7 +3734,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0141552,48.5310254]},"properties":{"id":"DNK10","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Livoberezhnyi-3\", residential area, schools, small traffic"}},</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="74" thickBot="1">
+    <row r="32" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A32" s="6" t="s">
         <v>139</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.089979,48.498245]},"properties":{"id":"DNK11","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Metallurgical plant \"Interpipe\", reference measurement station"}},</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="98" thickBot="1">
+    <row r="33" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A33" s="6" t="s">
         <v>142</v>
       </c>
@@ -3852,7 +3854,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.05493,48.515423]},"properties":{"id":"DNK12","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Market \"Obraztsova\", Kalynova Street, schools, playgrounds, moderate traffic"}},</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="86" thickBot="1">
+    <row r="34" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A34" s="6" t="s">
         <v>145</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0063704,48.4374452]},"properties":{"id":"DNK13","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Modern park \"Green Grove\", crowded place, green area, no traffic"}},</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="86" thickBot="1">
+    <row r="35" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A35" s="6" t="s">
         <v>148</v>
       </c>
@@ -3972,7 +3974,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0327317,48.5266199]},"properties":{"id":"DNK14","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Karavan\", huge traffic, crowded place, large market"}},</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="74" thickBot="1">
+    <row r="36" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A36" s="6" t="s">
         <v>151</v>
       </c>
@@ -4032,7 +4034,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0152727,48.4772814]},"properties":{"id":"DNK15","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Central railway station, crowded place, huge traffic"}},</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="110" thickBot="1">
+    <row r="37" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A37" s="6" t="s">
         <v>155</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0228672,48.4719534]},"properties":{"id":"DNK16","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Central city market \"Ozerka\", large parking slot, huge traffic, crowded place, central park"}},</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="86" thickBot="1">
+    <row r="38" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>158</v>
       </c>
@@ -4152,7 +4154,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9524035,48.5216731]},"properties":{"id":"DNK17","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"City Cardiac-Hospital #20, Amur-Nyzhnodniprovskyi District, no traffic"}},</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="62" thickBot="1">
+    <row r="39" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A39" s="6" t="s">
         <v>162</v>
       </c>
@@ -4212,7 +4214,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0276852,48.3958008]},"properties":{"id":"DNK18","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Topolia\", city hospital, schools"}},</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="86" thickBot="1">
+    <row r="40" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A40" s="6" t="s">
         <v>165</v>
       </c>
@@ -4272,7 +4274,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9801057,48.3936032]},"properties":{"id":"DNK19","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Krotova\", far from city center, schools, kindergarten"}},</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="170" thickBot="1">
+    <row r="41" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A41" s="6" t="s">
         <v>168</v>
       </c>
@@ -4332,7 +4334,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0010162,48.4081437]},"properties":{"id":"DNK20","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Kvartal 12\", large intersection, market, shopping mall, huge traffic, pedestrian area, schools, kindergartens"}},</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="98" thickBot="1">
+    <row r="42" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A42" s="6" t="s">
         <v>171</v>
       </c>
@@ -4392,7 +4394,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.9060767,48.480765]},"properties":{"id":"DNK21","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Housing area \"Parus\", schools, pedestrian area, bus station, small traffic"}},</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="86" thickBot="1">
+    <row r="43" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A43" s="6" t="s">
         <v>174</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0231467,48.425396]},"properties":{"id":"DNK22","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Dafi\", large roundabout, huge traffic, crowded place"}},</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="134" thickBot="1">
+    <row r="44" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A44" s="6" t="s">
         <v>177</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0094192,48.428169]},"properties":{"id":"DNK23","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Tytova street, shopping mall \"Silpo\", small traffic, residential area, street market, schools, kindergarten"}},</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="74" thickBot="1">
+    <row r="45" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A45" s="6" t="s">
         <v>180</v>
       </c>
@@ -4572,7 +4574,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0593666,48.450057]},"properties":{"id":"DNK24","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Shopping mall \"Nagorka\", huge traffic, universities, hospitals"}},</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="134" thickBot="1">
+    <row r="46" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A46" s="6" t="s">
         <v>183</v>
       </c>
@@ -4632,7 +4634,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[34.969635,48.461718]},"properties":{"id":"DNK25","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Petrovskogo street, shopping mall \"Varus\", children's clinical hospital #6, groceries stores, huge traffic"}},</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="98" thickBot="1">
+    <row r="47" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A47" s="6" t="s">
         <v>186</v>
       </c>
@@ -4692,7 +4694,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0009117,48.4475965]},"properties":{"id":"DNK26","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Kaverina street, shopping malls, farmer's market, schools, huge traffic"}},</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="74" thickBot="1">
+    <row r="48" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A48" s="6" t="s">
         <v>190</v>
       </c>
@@ -4752,7 +4754,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0640127,48.4819102]},"properties":{"id":"DNK27","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":1,"info":"Housing area \"Solnechnyi\", huge traffic, small city park"}},</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="62" thickBot="1">
+    <row r="49" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>193</v>
       </c>
@@ -4812,7 +4814,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0488214,48.4916231]},"properties":{"id":"DNK28","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Clinical Hospital #9, moderate traffic, schools"}},</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="74" thickBot="1">
+    <row r="50" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>197</v>
       </c>
@@ -4872,7 +4874,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0815529,48.4607313]},"properties":{"id":"DNK29","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Monastyrskyi island, Aquarium, green area, city park, no traffic"}},</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="62" thickBot="1">
+    <row r="51" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>201</v>
       </c>
@@ -4932,7 +4934,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[35.0700553,48.4626939]},"properties":{"id":"DNK30","group":"savednipro.org","city":"Dnipro","color":"#000000","height":3,"trafic":0,"info":"Park \"Shevchenko\", no traffic, green area"}},</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="97">
+    <row r="52" spans="1:19" ht="28" customHeight="1">
       <c r="A52" s="8" t="s">
         <v>224</v>
       </c>
@@ -4992,7 +4994,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.075728,47.467912]},"properties":{"id":"BUD1","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Közvágóhíd megálló) Busy intersection with people. traffic. party places. theatre nearby."}},</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="145">
+    <row r="53" spans="1:19" ht="28" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>231</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.080888,47.466466]},"properties":{"id":"BUD2","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Közvágóhíd. Gubacsi út Tesco) moderate busy road close to intersection. people. traffic. party places. and mall close."}},</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="97">
+    <row r="54" spans="1:19" ht="28" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>235</v>
       </c>
@@ -5062,7 +5064,9 @@
       <c r="C54" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="8" t="s">
+        <v>227</v>
+      </c>
       <c r="E54" s="8" t="s">
         <v>228</v>
       </c>
@@ -5107,10 +5111,10 @@
       </c>
       <c r="S54" t="str">
         <f t="shared" si="0"/>
-        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.067378,47.479634]},"properties":{"id":"BUD3","group":"CAAG","city":"","color":"#3fc9f0","height":2,"trafic":1,"info":"(Boráros tér-fent) Busy intersection. bus station. with people. traffic. many office buildings."}},</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="85">
+        <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.067378,47.479634]},"properties":{"id":"BUD3","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Boráros tér-fent) Busy intersection. bus station. with people. traffic. many office buildings."}},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="28" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>239</v>
       </c>
@@ -5170,7 +5174,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066933,47.479971]},"properties":{"id":"BUD4","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Boráros tér -lent) Busy intersection with people. traffic. many office buildings. "}},</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="133">
+    <row r="56" spans="1:19" ht="28" customHeight="1">
       <c r="A56" s="8" t="s">
         <v>243</v>
       </c>
@@ -5230,7 +5234,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069323,47.481309]},"properties":{"id":"BUD5","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Boráros tér. Mester-Angyal u.) moderate busy road close to busy roads. many shops. restaurants. building blocks."}},</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="97">
+    <row r="57" spans="1:19" ht="28" customHeight="1">
       <c r="A57" s="8" t="s">
         <v>247</v>
       </c>
@@ -5290,7 +5294,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069358,47.485891]},"properties":{"id":"BUD6","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Corvin-negyed) busy intersection with people. traffic. schools and hospital nearby."}},</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="121">
+    <row r="58" spans="1:19" ht="28" customHeight="1">
       <c r="A58" s="8" t="s">
         <v>252</v>
       </c>
@@ -5350,7 +5354,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066088,47.487658]},"properties":{"id":"BUD7","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Near Corvin-negyed and Kálvin tér) moderate busy road with many office buildings. building blocks."}},</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="97">
+    <row r="59" spans="1:19" ht="28" customHeight="1">
       <c r="A59" s="8" t="s">
         <v>256</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.06179,47.489297]},"properties":{"id":"BUD8","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kálvin tér) busy intersection with people. traffic. schools and hospital nearby."}},</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="85">
+    <row r="60" spans="1:19" ht="28" customHeight="1">
       <c r="A60" s="8" t="s">
         <v>260</v>
       </c>
@@ -5470,7 +5474,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.055664,47.510258]},"properties":{"id":"BUD9","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Nyugati pu) busy intersection with people. traffic. schools and mall nearby."}},</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="97">
+    <row r="61" spans="1:19" ht="28" customHeight="1">
       <c r="A61" s="8" t="s">
         <v>264</v>
       </c>
@@ -5530,7 +5534,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.053931,47.512085]},"properties":{"id":"BUD10","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near Nyugati pu. Kádár u) moderate busy street with people. traffic. hospital nearby."}},</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="85">
+    <row r="62" spans="1:19" ht="28" customHeight="1">
       <c r="A62" s="8" t="s">
         <v>268</v>
       </c>
@@ -5590,7 +5594,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.037154,47.514736]},"properties":{"id":"BUD11","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Margit krt) busy road with with people. traffic. hospital nearby."}},</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="109">
+    <row r="63" spans="1:19" ht="28" customHeight="1">
       <c r="A63" s="8" t="s">
         <v>272</v>
       </c>
@@ -5650,7 +5654,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.027087,47.507904]},"properties":{"id":"BUD12","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Széna tér) Busy intersection. bus station. with people. traffic. many office buildings. mall."}},</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="73">
+    <row r="64" spans="1:19" ht="28" customHeight="1">
       <c r="A64" s="8" t="s">
         <v>276</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.023974,47.508516]},"properties":{"id":"BUD13","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Széna tér) moderate busy street with people. traffic. mall nearby. "}},</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="121">
+    <row r="65" spans="1:19" ht="28" customHeight="1">
       <c r="A65" s="8" t="s">
         <v>280</v>
       </c>
@@ -5770,7 +5774,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.024256,47.501953]},"properties":{"id":"BUD14","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Déli pu) Busy intersection. bus station. with people. traffic. many office buildings. schools and a big park."}},</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="134" thickBot="1">
+    <row r="66" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A66" s="9" t="s">
         <v>284</v>
       </c>
@@ -5830,7 +5834,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.021809,47.502454]},"properties":{"id":"BUD15","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Déli pu. Városmajor u.) moderate busy street with people. traffic. many office buildings. schools and a hospital nearby."}},</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="74" thickBot="1">
+    <row r="67" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A67" s="2" t="s">
         <v>288</v>
       </c>
@@ -5890,7 +5894,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.546835,53.932023]},"properties":{"id":"MSQ1","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Busy intersection with heavy truck traffic, pedestrians, bikeroads"}},</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="97">
+    <row r="68" spans="1:19" ht="28" customHeight="1">
       <c r="A68" s="8" t="s">
         <v>224</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.075728,47.467912]},"properties":{"id":"BUD1","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Közvágóhíd megálló) Busy intersection with people, traffic, party places, theatre nearby."}},</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="145">
+    <row r="69" spans="1:19" ht="28" customHeight="1">
       <c r="A69" s="8" t="s">
         <v>231</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.080888,47.466466]},"properties":{"id":"BUD2","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Közvágóhíd, Gubacsi út Tesco) moderate busy road close to intersection, people, traffic, party places, and mall close."}},</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="97">
+    <row r="70" spans="1:19" ht="28" customHeight="1">
       <c r="A70" s="8" t="s">
         <v>235</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.067378,47.479634]},"properties":{"id":"BUD3","group":"CAAG","city":"","color":"#3fc9f0","height":2,"trafic":1,"info":"(Boráros tér-fent) Busy intersection, bus station, with people, traffic, many office buildings."}},</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="85">
+    <row r="71" spans="1:19" ht="28" customHeight="1">
       <c r="A71" s="8" t="s">
         <v>239</v>
       </c>
@@ -6128,7 +6132,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066933,47.479971]},"properties":{"id":"BUD4","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Boráros tér -lent) Busy intersection with people, traffic, many office buildings. "}},</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="133">
+    <row r="72" spans="1:19" ht="28" customHeight="1">
       <c r="A72" s="8" t="s">
         <v>243</v>
       </c>
@@ -6188,7 +6192,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069323,47.481309]},"properties":{"id":"BUD5","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Boráros tér, Mester-Angyal u.) moderate busy road close to busy roads, many shops, restaurants, building blocks."}},</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="97">
+    <row r="73" spans="1:19" ht="28" customHeight="1">
       <c r="A73" s="8" t="s">
         <v>247</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.069358,47.485891]},"properties":{"id":"BUD6","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Corvin-negyed) busy intersection with people, traffic, schools and hospital nearby."}},</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="121">
+    <row r="74" spans="1:19" ht="28" customHeight="1">
       <c r="A74" s="8" t="s">
         <v>252</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.066088,47.487658]},"properties":{"id":"BUD7","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Near Corvin-negyed and Kálvin tér) moderate busy road with many office buildings, building blocks."}},</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="97">
+    <row r="75" spans="1:19" ht="28" customHeight="1">
       <c r="A75" s="8" t="s">
         <v>256</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.06179,47.489297]},"properties":{"id":"BUD8","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kálvin tér) busy intersection with people, traffic, schools and hospital nearby."}},</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="85">
+    <row r="76" spans="1:19" ht="28" customHeight="1">
       <c r="A76" s="8" t="s">
         <v>260</v>
       </c>
@@ -6428,7 +6432,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.055664,47.510258]},"properties":{"id":"BUD9","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Nyugati pu) busy intersection with people, traffic, schools and mall nearby."}},</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="97">
+    <row r="77" spans="1:19" ht="28" customHeight="1">
       <c r="A77" s="8" t="s">
         <v>264</v>
       </c>
@@ -6488,7 +6492,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.053931,47.512085]},"properties":{"id":"BUD10","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near Nyugati pu, Kádár u) moderate busy street with people, traffic, hospital nearby."}},</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="85">
+    <row r="78" spans="1:19" ht="28" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>268</v>
       </c>
@@ -6548,7 +6552,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.037154,47.514736]},"properties":{"id":"BUD11","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Margit krt) busy road with with people, traffic, hospital nearby,"}},</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="109">
+    <row r="79" spans="1:19" ht="28" customHeight="1">
       <c r="A79" s="8" t="s">
         <v>272</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.027087,47.507904]},"properties":{"id":"BUD12","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Széna tér) Busy intersection, bus station, with people, traffic, many office buildings, mall."}},</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="73">
+    <row r="80" spans="1:19" ht="28" customHeight="1">
       <c r="A80" s="8" t="s">
         <v>276</v>
       </c>
@@ -6668,7 +6672,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.023974,47.508516]},"properties":{"id":"BUD13","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Széna tér) moderate busy street with people, traffic, mall nearby. "}},</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="121">
+    <row r="81" spans="1:19" ht="28" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>280</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.024256,47.501953]},"properties":{"id":"BUD14","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Déli pu) Busy intersection, bus station, with people, traffic, many office buildings, schools and a big park."}},</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="133">
+    <row r="82" spans="1:19" ht="28" customHeight="1">
       <c r="A82" s="11" t="s">
         <v>284</v>
       </c>
@@ -6788,7 +6792,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.021809,47.502454]},"properties":{"id":"BUD15","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(near Déli pu, Városmajor u.) moderate busy street with people, traffic, many office buildings, schools and a hospital nearby."}},</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="97">
+    <row r="83" spans="1:19" ht="28" customHeight="1">
       <c r="A83" s="11" t="s">
         <v>310</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.078942,47.496672]},"properties":{"id":"BUD16","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":0,"info":"(II.János Pál pápa tér), green park surrounded by residential buildings and moderate traffic."}},</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="145">
+    <row r="84" spans="1:19" ht="28" customHeight="1">
       <c r="A84" s="11" t="s">
         <v>314</v>
       </c>
@@ -6908,7 +6912,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.041137,47.540964]},"properties":{"id":"BUD17","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Flórián tér) Busy intersection, bus, tram station, with people, traffic, many resitential buildings, hospital, shopping mall, schools."}},</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="121">
+    <row r="85" spans="1:19" ht="28" customHeight="1">
       <c r="A85" s="11" t="s">
         <v>318</v>
       </c>
@@ -6968,7 +6972,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.038189,47.543455]},"properties":{"id":"BUD18","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(nearFlórián tér, Kórház u.) moderate busy street with many residential building blocks, shops, people, hospital."}},</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="193">
+    <row r="86" spans="1:19" ht="28" customHeight="1">
       <c r="A86" s="11" t="s">
         <v>322</v>
       </c>
@@ -7028,7 +7032,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.088348,47.518866]},"properties":{"id":"BUD19","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Kacsóh Pongrác úti megálló) Busy intersection, entry to highway, bus, tram station, with people, traffic, many resitential buildings,  hospital, close to UNESCO city park and bath."}},</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="145">
+    <row r="87" spans="1:19" ht="28" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>326</v>
       </c>
@@ -7088,7 +7092,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.086176,47.518239]},"properties":{"id":"BUD20","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near to Kacsóh Pongrác), busy road with public transport, traffic, people,beside the UNESCO city park, residential buildings."}},</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="121">
+    <row r="88" spans="1:19" ht="28" customHeight="1">
       <c r="A88" s="11" t="s">
         <v>330</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.090144,47.560772]},"properties":{"id":"BUD21","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1.5,"trafic":1,"info":"(Újpest-Városközpont) busy intersection with public transport,traffic, people,residential building blocks, shops."}},</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="109">
+    <row r="89" spans="1:19" ht="28" customHeight="1">
       <c r="A89" s="11" t="s">
         <v>334</v>
       </c>
@@ -7208,7 +7212,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.088294,47.561605]},"properties":{"id":"BUD22","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Near Újpest-Városközpont) moderate busy street with a park, residential buildings, mall, shops, traffic."}},</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="97">
+    <row r="90" spans="1:19" ht="28" customHeight="1">
       <c r="A90" s="11" t="s">
         <v>338</v>
       </c>
@@ -7268,7 +7272,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.089486,47.478829]},"properties":{"id":"BUD23","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Nagyvárad tér) busy intersection with traffic, people, school,hospitals, close to green park."}},</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" ht="28" customHeight="1">
       <c r="A91" t="s">
         <v>342</v>
       </c>
@@ -7328,7 +7332,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.094298,47.480592]},"properties":{"id":"BUD24","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Nagyvárad tér), moderate busy street with traffic,people, residential buildings, schools, hospital, close to green park."}},</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" ht="28" customHeight="1">
       <c r="A92" t="s">
         <v>346</v>
       </c>
@@ -7388,7 +7392,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.094559,47.521894]},"properties":{"id":"BUD25","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to highway M3 and city park). moderate busy street with people. residential building blocks. traffic."}},</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" ht="28" customHeight="1">
       <c r="A93" t="s">
         <v>350</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.016553,47.466128]},"properties":{"id":"BUD26","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":1,"trafic":1,"info":"(Budaörsi út. near Kelenföld pu) busy road with people. traffic. train and bus station close. residential buildings and offices."}},</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" ht="28" customHeight="1">
       <c r="A94" t="s">
         <v>354</v>
       </c>
@@ -7508,7 +7512,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.019297,47.467142]},"properties":{"id":"BUD27","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Budaörsi út). moderate busy street with people. traffic. residential buildings."}},</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" ht="28" customHeight="1">
       <c r="A95" t="s">
         <v>358</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.136842,47.503904]},"properties":{"id":"BUD28","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(Örs vezér tér) busy intersection with people. traffic. every kind of public transport. shopping mall. close to hospital."}},</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" ht="28" customHeight="1">
       <c r="A96" t="s">
         <v>362</v>
       </c>
@@ -7628,7 +7632,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.133894,47.505597]},"properties":{"id":"BUD29","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":1,"info":"(near to Örs vezér tér).moderate busy street with people. traffic. hospital."}},</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="16" thickBot="1">
+    <row r="97" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A97" t="s">
         <v>366</v>
       </c>
@@ -7688,7 +7692,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[19.100679,47.476853]},"properties":{"id":"BUD30","group":"CAAG","city":"Budapest","color":"#3fc9f0","height":2,"trafic":0/1,"info":"(Népliget). moderate or no traffic. green park. people. close to bus station and busy road."}},</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="86" thickBot="1">
+    <row r="98" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A98" s="13" t="s">
         <v>288</v>
       </c>
@@ -7748,7 +7752,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.546835,53.932023]},"properties":{"id":"MSQ1","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Arlouskaya st., busy intersection with heavy truck traffic, pedestrians, bikeroads"}},</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="98" thickBot="1">
+    <row r="99" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A99" s="13" t="s">
         <v>372</v>
       </c>
@@ -7808,7 +7812,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.671079,53.945368]},"properties":{"id":"MSQ2","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Uručča, residential area with open access to the heavily loaded outer city ring"}},</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="74" thickBot="1">
+    <row r="100" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A100" s="13" t="s">
         <v>376</v>
       </c>
@@ -7868,7 +7872,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.608928,53.923499]},"properties":{"id":"MSQ3","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Independence ave/Kalinina sq., city center, heavy traffic"}},</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="62" thickBot="1">
+    <row r="101" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A101" s="13" t="s">
         <v>380</v>
       </c>
@@ -7928,7 +7932,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.587808,53.920724]},"properties":{"id":"MSQ4","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Kolasa st., Technical university campus, heavy traffic"}},</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="74" thickBot="1">
+    <row r="102" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A102" s="13" t="s">
         <v>384</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.580108,53.887069]},"properties":{"id":"MSQ5","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Partizansky ave, traffic interchange, heavy traffic, railway nearby"}},</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="50" thickBot="1">
+    <row r="103" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A103" s="13" t="s">
         <v>388</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.609916,53.878242]},"properties":{"id":"MSQ6","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Vaneeva st., traffic circle, lots of pedestrians"}},</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="50" thickBot="1">
+    <row r="104" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A104" s="13" t="s">
         <v>392</v>
       </c>
@@ -8108,7 +8112,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.568392,53.875016]},"properties":{"id":"MSQ7","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Mayakovskogo st., heavy traffic, pedestrians"}},</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="74" thickBot="1">
+    <row r="105" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A105" s="13" t="s">
         <v>396</v>
       </c>
@@ -8168,7 +8172,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.606739,53.862187]},"properties":{"id":"MSQ8","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Plehanova st., main crossroads in large residential district"}},</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="38" thickBot="1">
+    <row r="106" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A106" s="13" t="s">
         <v>400</v>
       </c>
@@ -8228,7 +8232,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.639528,53.892688]},"properties":{"id":"MSQ9","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Vaupshasov st., heavy transit traffic"}},</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="86" thickBot="1">
+    <row r="107" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A107" s="13" t="s">
         <v>404</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.655988,53.879158]},"properties":{"id":"MSQ10","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Radialnaya, heavy traffic, highly polluted industrial area (tractor works)"}},</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="50" thickBot="1">
+    <row r="108" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A108" s="13" t="s">
         <v>408</v>
       </c>
@@ -8348,7 +8352,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.53292,53.839494]},"properties":{"id":"MSQ11","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Kizhevatova st., heavy traffic, city entrance"}},</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="38" thickBot="1">
+    <row r="109" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A109" s="13" t="s">
         <v>412</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.538454,53.895705]},"properties":{"id":"MSQ12","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Zetkin st., local traffic interchange"}},</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="50" thickBot="1">
+    <row r="110" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A110" s="13" t="s">
         <v>416</v>
       </c>
@@ -8468,7 +8472,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.497873,53.909921]},"properties":{"id":"MSQ13","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Pushkin ave, 2nd city ring, heavy loaded"}},</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="62" thickBot="1">
+    <row r="111" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A111" s="13" t="s">
         <v>420</v>
       </c>
@@ -8528,7 +8532,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.41299,53.916667]},"properties":{"id":"MSQ14","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Outer city ring near large residential area"}},</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="98" thickBot="1">
+    <row r="112" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A112" s="13" t="s">
         <v>424</v>
       </c>
@@ -8588,7 +8592,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.523712,53.913358]},"properties":{"id":"MSQ15","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Timiryazev st., heavy traffic, next to the reference station of BelHydroMet"}},</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="98" thickBot="1">
+    <row r="113" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A113" s="13" t="s">
         <v>428</v>
       </c>
@@ -8648,7 +8652,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.71229,53.947473]},"properties":{"id":"MSQ16","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"Uručča, residential area, next to the reference station of BelHydroMet"}},</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="38" thickBot="1">
+    <row r="114" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A114" s="13" t="s">
         <v>432</v>
       </c>
@@ -8708,7 +8712,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.615162,53.913675]},"properties":{"id":"MSQ17","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":1,"info":"City center, local traffic interchange"}},</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="50" thickBot="1">
+    <row r="115" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A115" s="13" t="s">
         <v>436</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.575205,53.941037]},"properties":{"id":"MSQ18","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":1,"trafic":0,"info":"Mozhaisky st., calm residential area"}},</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="26" thickBot="1">
+    <row r="116" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A116" s="13" t="s">
         <v>440</v>
       </c>
@@ -8828,7 +8832,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.530621,53.969048]},"properties":{"id":"MSQ19","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":3,"trafic":1,"info":"Outer city ring"}},</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="38" thickBot="1">
+    <row r="117" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A117" s="13" t="s">
         <v>432</v>
       </c>
@@ -8888,7 +8892,7 @@
         <v>{"type":"Feature","geometry":{"type":"Point","coordinates":[27.615162,53.913675]},"properties":{"id":"MSQ20","group":"airmq.by","city":"Minsk","color":"#03E2B8","height":2,"trafic":0,"info":"Center of city Botanic garden"}},</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="74" thickBot="1">
+    <row r="118" spans="1:19" ht="28" customHeight="1" thickBot="1">
       <c r="A118" s="13" t="s">
         <v>446</v>
       </c>

--- a/doc/Workbook1.xlsx
+++ b/doc/Workbook1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="5800" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1475,7 +1475,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1488,6 +1488,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1544,7 +1547,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1559,6 +1562,9 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1896,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
